--- a/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/_image/http_send_sync_ok_pattern.xlsx
+++ b/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/_image/http_send_sync_ok_pattern.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1410" yWindow="1035" windowWidth="27135" windowHeight="10740" tabRatio="489"/>
+    <workbookView xWindow="165" yWindow="1020" windowWidth="27135" windowHeight="10740" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="testNormalEndExistAllFields" sheetId="2" r:id="rId1"/>
@@ -745,7 +745,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -863,6 +863,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -873,6 +875,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -887,14 +894,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:colOff>1781175</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -903,175 +910,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="2114551"/>
-          <a:ext cx="1371600" cy="133349"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="2209800"/>
-          <a:ext cx="6343650" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>"RESPONSE_HEADER_MESSAGES"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>"RESPONSE_BODY_MESSAGES"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>をそれぞれ、連続で記述する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1400174</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="4362451"/>
-          <a:ext cx="1400174" cy="152399"/>
+          <a:off x="28575" y="2667002"/>
+          <a:ext cx="1752600" cy="123824"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1115,24 +955,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>1800224</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5629276"/>
-          <a:ext cx="1304925" cy="133349"/>
+          <a:off x="0" y="3952877"/>
+          <a:ext cx="1800224" cy="123824"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1176,14 +1016,75 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5219701"/>
+          <a:ext cx="1676400" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1666875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1192,8 +1093,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6981826"/>
-          <a:ext cx="1304925" cy="133349"/>
+          <a:off x="0" y="6572251"/>
+          <a:ext cx="1666875" cy="142874"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1237,13 +1138,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1333500</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:colOff>2933700</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1254,7 +1155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9525" y="6134101"/>
-          <a:ext cx="4010025" cy="295274"/>
+          <a:ext cx="5610225" cy="295274"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1297,121 +1198,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="9544050"/>
-          <a:ext cx="7581900" cy="276225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>"EXPECTED_REQUEST_HEADER_MESSAGESS"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>"EXPECTED_REQUEST_BODY_MESSAGESS"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>をそれぞれ、連続で記述する。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1885950</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>2257425</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1420,8 +1215,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28575" y="9886952"/>
-          <a:ext cx="1857375" cy="123824"/>
+          <a:off x="28575" y="9886951"/>
+          <a:ext cx="2228850" cy="142873"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1465,14 +1260,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>9527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:colOff>2257424</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1482,7 +1277,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="11172827"/>
-          <a:ext cx="1857375" cy="123824"/>
+          <a:ext cx="2257424" cy="142873"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1526,14 +1321,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>2143125</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1543,7 +1338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="12306302"/>
-          <a:ext cx="1857375" cy="123824"/>
+          <a:ext cx="2143125" cy="133348"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1587,14 +1382,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19052</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1790701</xdr:colOff>
+      <xdr:colOff>2124075</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1603,8 +1398,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1" y="14582777"/>
-          <a:ext cx="1790700" cy="123823"/>
+          <a:off x="1" y="14582778"/>
+          <a:ext cx="2124074" cy="114298"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1647,14 +1442,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2666999</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1664,8 +1459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2666999" y="13154025"/>
-          <a:ext cx="2981325" cy="1295399"/>
+          <a:off x="0" y="13154025"/>
+          <a:ext cx="5648324" cy="1295399"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1707,38 +1502,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="3" name="線吹き出し 1 (枠付き) 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="5848350"/>
-          <a:ext cx="3028950" cy="609600"/>
+          <a:off x="7191374" y="12973050"/>
+          <a:ext cx="3629026" cy="1038225"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 54782"/>
+            <a:gd name="adj4" fmla="val -42713"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFFFCC"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1767,20 +1566,38 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・同一電文については、</a:t>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・同一リクエスト</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の電文については、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:rPr>
             <a:t>no</a:t>
           </a:r>
@@ -1789,34 +1606,117 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
             </a:rPr>
             <a:t>の値を変えてまとめて記述する。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・同一リクエスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の場合は、電文の長さを合わせる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>電文を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>回送信する場合と同様の制約である。テストケース上、同一の長さにできない場合は、手動でテストを行うこと。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・同一電文の場合は、電文の長さを合わせる</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1824,38 +1724,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2047873</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>1276349</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="19" name="線吹き出し 1 (枠付き) 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5762625" y="13220700"/>
-          <a:ext cx="3028950" cy="609600"/>
+          <a:off x="4733923" y="9534525"/>
+          <a:ext cx="4572001" cy="428626"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 54782"/>
+            <a:gd name="adj4" fmla="val -53212"/>
+          </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
+          <a:srgbClr val="FFFFCC"/>
         </a:solidFill>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1884,42 +1788,197 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・同一電文については、</a:t>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>同一データタイプ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>no</a:t>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>の値を変えてまとめて記述する。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ここでは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>"EXPECTED_REQUEST_HEADER_MESSAGESS"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>"EXPECTED_REQUEST_BODY_MESSAGESS")</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>は、それぞれ、まとめて記述する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
-            <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209548</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>942974</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="線吹き出し 1 (枠付き) 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143748" y="5534024"/>
+          <a:ext cx="3314701" cy="1123951"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 58172"/>
+            <a:gd name="adj4" fmla="val -52925"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・同一リクエスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の電文については、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>no</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の値を変えてまとめて記述する。</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1928,12 +1987,250 @@
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-              <a:cs typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>・同一電文の場合は、電文の長さを合わせる</a:t>
-          </a:r>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>・同一リクエスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>の電文の場合は、電文の長さを合わせる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>電文を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>回送信する場合と同様の制約である。テストケース上、同一の長さにできない場合は、手動でテストを行うこと。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247648</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="線吹き出し 1 (枠付き) 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933698" y="2181225"/>
+          <a:ext cx="4572001" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 99226"/>
+            <a:gd name="adj4" fmla="val -34879"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>同一データタイプ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ここでは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>"RESPONSE_HEADER_MESSAGES"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>"RESPONSE_BODY_MESSAGES")</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>は、それぞれ、まとめて記述する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2230,10 +2527,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R99"/>
+  <dimension ref="A1:R100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -2541,74 +2838,70 @@
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:18" ht="11.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="16"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" ht="11.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="16"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-    </row>
-    <row r="17" spans="1:10" ht="11.25">
-      <c r="A17" s="22" t="s">
+    <row r="13" spans="1:18" s="58" customFormat="1" ht="14.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:18" ht="11.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" ht="11.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="16"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="11.25">
+      <c r="A18" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" ht="11.25">
-      <c r="A18" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:10" ht="11.25">
       <c r="A19" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -2616,92 +2909,90 @@
       <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="11.25">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" ht="11.25">
+      <c r="A21" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B21" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C21" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D21" s="30" t="s">
         <v>21</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" ht="11.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>22</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="11.25">
-      <c r="A22" s="33"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="28" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="11.25">
-      <c r="A23" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="31"/>
       <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="11.25">
       <c r="A24" s="34" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
-      <c r="E24" s="46"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="26"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-    </row>
-    <row r="26" spans="1:10" ht="11.25">
-      <c r="A26" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+    <row r="25" spans="1:10" ht="11.25">
+      <c r="A25" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="26"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="16"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="16"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -2710,14 +3001,12 @@
       <c r="J26" s="18"/>
     </row>
     <row r="27" spans="1:10" ht="11.25">
-      <c r="A27" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
+      <c r="A27" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="16"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -2727,10 +3016,10 @@
     </row>
     <row r="28" spans="1:10" ht="11.25">
       <c r="A28" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -2742,18 +3031,14 @@
       <c r="J28" s="18"/>
     </row>
     <row r="29" spans="1:10" ht="11.25">
-      <c r="A29" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="A29" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="E29" s="16"/>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -2762,15 +3047,17 @@
       <c r="J29" s="18"/>
     </row>
     <row r="30" spans="1:10" ht="11.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="18"/>
@@ -2780,15 +3067,15 @@
       <c r="J30" s="18"/>
     </row>
     <row r="31" spans="1:10" ht="11.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="32"/>
       <c r="B31" s="28" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="18"/>
@@ -2798,14 +3085,16 @@
       <c r="J31" s="18"/>
     </row>
     <row r="32" spans="1:10" ht="11.25">
-      <c r="A32" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="E32" s="16"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -2814,10 +3103,14 @@
       <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" ht="11.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
+      <c r="A33" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="16"/>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -2838,10 +3131,8 @@
       <c r="J34" s="18"/>
     </row>
     <row r="35" spans="1:10" ht="11.25">
-      <c r="A35" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="23"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="16"/>
@@ -2852,12 +3143,10 @@
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="11.25">
-      <c r="A36" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>74</v>
-      </c>
+      <c r="A36" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="23"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="16"/>
@@ -2867,12 +3156,12 @@
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
     </row>
-    <row r="37" spans="1:10" ht="12">
-      <c r="A37" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>66</v>
+    <row r="37" spans="1:10" ht="11.25">
+      <c r="A37" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
@@ -2884,11 +3173,11 @@
       <c r="J37" s="18"/>
     </row>
     <row r="38" spans="1:10" ht="12">
-      <c r="A38" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>68</v>
+      <c r="A38" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
@@ -2900,9 +3189,11 @@
       <c r="J38" s="18"/>
     </row>
     <row r="39" spans="1:10" ht="12">
-      <c r="A39" s="51"/>
+      <c r="A39" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="B39" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
@@ -2914,9 +3205,9 @@
       <c r="J39" s="18"/>
     </row>
     <row r="40" spans="1:10" ht="12">
-      <c r="A40" s="52"/>
-      <c r="B40" s="53" t="s">
-        <v>73</v>
+      <c r="A40" s="51"/>
+      <c r="B40" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -2928,11 +3219,9 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="12">
-      <c r="A41" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="55" t="s">
-        <v>71</v>
+      <c r="A41" s="52"/>
+      <c r="B41" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -2945,7 +3234,7 @@
     </row>
     <row r="42" spans="1:10" ht="12">
       <c r="A42" s="54" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B42" s="55" t="s">
         <v>71</v>
@@ -2959,9 +3248,13 @@
       <c r="I42" s="18"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:10" ht="11.25">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
+    <row r="43" spans="1:10" ht="12">
+      <c r="A43" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>71</v>
+      </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="16"/>
@@ -2972,12 +3265,10 @@
       <c r="J43" s="18"/>
     </row>
     <row r="44" spans="1:10" ht="11.25">
-      <c r="A44" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
       <c r="E44" s="16"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -2986,12 +3277,10 @@
       <c r="J44" s="18"/>
     </row>
     <row r="45" spans="1:10" ht="11.25">
-      <c r="A45" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>74</v>
-      </c>
+      <c r="A45" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="23"/>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="16"/>
@@ -3001,15 +3290,15 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:10" ht="12">
-      <c r="A46" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="56"/>
+    <row r="46" spans="1:10" ht="11.25">
+      <c r="A46" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -3018,11 +3307,11 @@
       <c r="J46" s="18"/>
     </row>
     <row r="47" spans="1:10" ht="12">
-      <c r="A47" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>68</v>
+      <c r="A47" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="C47" s="56"/>
       <c r="D47" s="56"/>
@@ -3034,9 +3323,11 @@
       <c r="J47" s="18"/>
     </row>
     <row r="48" spans="1:10" ht="12">
-      <c r="A48" s="51"/>
+      <c r="A48" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="B48" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="56"/>
       <c r="D48" s="56"/>
@@ -3048,9 +3339,9 @@
       <c r="J48" s="18"/>
     </row>
     <row r="49" spans="1:18" ht="12">
-      <c r="A49" s="52"/>
-      <c r="B49" s="53" t="s">
-        <v>73</v>
+      <c r="A49" s="51"/>
+      <c r="B49" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="C49" s="56"/>
       <c r="D49" s="56"/>
@@ -3062,11 +3353,9 @@
       <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:18" ht="12">
-      <c r="A50" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="55" t="s">
-        <v>89</v>
+      <c r="A50" s="52"/>
+      <c r="B50" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
@@ -3077,11 +3366,15 @@
       <c r="I50" s="18"/>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:18">
-      <c r="A51" s="16"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="18"/>
+    <row r="51" spans="1:18" ht="12">
+      <c r="A51" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
       <c r="E51" s="16"/>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -3103,140 +3396,133 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="D53" s="16"/>
-    </row>
-    <row r="54" spans="1:18" ht="28.5">
-      <c r="A54" s="1" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="D54" s="16"/>
+    </row>
+    <row r="55" spans="1:18" ht="28.5">
+      <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:18">
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="45" t="s">
-        <v>59</v>
-      </c>
       <c r="E56" s="18"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="45" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B59" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C59" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="17" t="s">
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="19"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="19"/>
+      <c r="R59" s="19"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B60" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C60" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-    </row>
-    <row r="60" spans="1:18" ht="9.75" customHeight="1">
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-    </row>
-    <row r="61" spans="1:18" hidden="1"/>
-    <row r="62" spans="1:18" ht="14.25">
-      <c r="A62" s="21" t="s">
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+    </row>
+    <row r="61" spans="1:18" ht="9.75" customHeight="1">
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="1:18" hidden="1"/>
+    <row r="63" spans="1:18" ht="14.25">
+      <c r="A63" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="67" spans="1:13" ht="11.25">
-      <c r="A67" s="26" t="s">
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="68" spans="1:13" ht="11.25">
+      <c r="A68" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-    </row>
-    <row r="68" spans="1:13" ht="11.25">
-      <c r="A68" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
@@ -3249,10 +3535,10 @@
     </row>
     <row r="69" spans="1:13" ht="11.25">
       <c r="A69" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -3267,18 +3553,14 @@
       <c r="M69" s="22"/>
     </row>
     <row r="70" spans="1:13" ht="11.25">
-      <c r="A70" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="A70" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
@@ -3290,15 +3572,17 @@
       <c r="M70" s="22"/>
     </row>
     <row r="71" spans="1:13" ht="11.25">
-      <c r="A71" s="32"/>
+      <c r="A71" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="B71" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D71" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
@@ -3311,15 +3595,15 @@
       <c r="M71" s="22"/>
     </row>
     <row r="72" spans="1:13" ht="11.25">
-      <c r="A72" s="33"/>
+      <c r="A72" s="32"/>
       <c r="B72" s="28" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D72" s="30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
@@ -3332,16 +3616,16 @@
       <c r="M72" s="22"/>
     </row>
     <row r="73" spans="1:13" ht="11.25">
-      <c r="A73" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B73" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D73" s="34"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D73" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -3354,7 +3638,7 @@
     </row>
     <row r="74" spans="1:13" ht="11.25">
       <c r="A74" s="34" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B74" s="34" t="s">
         <v>86</v>
@@ -3374,10 +3658,16 @@
       <c r="M74" s="22"/>
     </row>
     <row r="75" spans="1:13" ht="11.25">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="34"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
@@ -3389,9 +3679,7 @@
       <c r="M75" s="22"/>
     </row>
     <row r="76" spans="1:13" ht="11.25">
-      <c r="A76" s="26" t="s">
-        <v>96</v>
-      </c>
+      <c r="A76" s="26"/>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
@@ -3406,15 +3694,13 @@
       <c r="M76" s="22"/>
     </row>
     <row r="77" spans="1:13" ht="11.25">
-      <c r="A77" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
+      <c r="A77" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
       <c r="H77" s="26"/>
@@ -3426,10 +3712,10 @@
     </row>
     <row r="78" spans="1:13" ht="11.25">
       <c r="A78" s="38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -3444,19 +3730,15 @@
       <c r="M78" s="22"/>
     </row>
     <row r="79" spans="1:13" ht="11.25">
-      <c r="A79" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="26"/>
+      <c r="A79" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
       <c r="H79" s="26"/>
@@ -3467,15 +3749,17 @@
       <c r="M79" s="22"/>
     </row>
     <row r="80" spans="1:13" ht="11.25">
-      <c r="A80" s="32"/>
+      <c r="A80" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="B80" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>20</v>
       </c>
       <c r="D80" s="30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
@@ -3488,15 +3772,15 @@
       <c r="M80" s="22"/>
     </row>
     <row r="81" spans="1:13" ht="11.25">
-      <c r="A81" s="33"/>
+      <c r="A81" s="32"/>
       <c r="B81" s="28" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
@@ -3509,16 +3793,16 @@
       <c r="M81" s="22"/>
     </row>
     <row r="82" spans="1:13" ht="11.25">
-      <c r="A82" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C82" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="34"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -3530,10 +3814,16 @@
       <c r="M82" s="22"/>
     </row>
     <row r="83" spans="1:13" ht="11.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
+      <c r="A83" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="34"/>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
@@ -3545,9 +3835,7 @@
       <c r="M83" s="22"/>
     </row>
     <row r="84" spans="1:13" ht="11.25">
-      <c r="A84" s="26" t="s">
-        <v>92</v>
-      </c>
+      <c r="A84" s="26"/>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
@@ -3562,12 +3850,10 @@
       <c r="M84" s="22"/>
     </row>
     <row r="85" spans="1:13" ht="11.25">
-      <c r="A85" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="36" t="s">
-        <v>74</v>
-      </c>
+      <c r="A85" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="26"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -3580,12 +3866,12 @@
       <c r="L85" s="22"/>
       <c r="M85" s="22"/>
     </row>
-    <row r="86" spans="1:13" ht="12">
-      <c r="A86" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B86" s="48" t="s">
-        <v>66</v>
+    <row r="86" spans="1:13" ht="11.25">
+      <c r="A86" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
@@ -3600,11 +3886,11 @@
       <c r="M86" s="22"/>
     </row>
     <row r="87" spans="1:13" ht="12">
-      <c r="A87" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B87" s="50" t="s">
-        <v>68</v>
+      <c r="A87" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
@@ -3619,9 +3905,11 @@
       <c r="M87" s="22"/>
     </row>
     <row r="88" spans="1:13" ht="12">
-      <c r="A88" s="51"/>
+      <c r="A88" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="B88" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
@@ -3636,9 +3924,9 @@
       <c r="M88" s="22"/>
     </row>
     <row r="89" spans="1:13" ht="12">
-      <c r="A89" s="52"/>
-      <c r="B89" s="53" t="s">
-        <v>73</v>
+      <c r="A89" s="51"/>
+      <c r="B89" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
@@ -3652,12 +3940,10 @@
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
     </row>
-    <row r="90" spans="1:13" ht="48">
-      <c r="A90" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B90" s="55" t="s">
-        <v>95</v>
+    <row r="90" spans="1:13" ht="12">
+      <c r="A90" s="52"/>
+      <c r="B90" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
@@ -3673,10 +3959,10 @@
     </row>
     <row r="91" spans="1:13" ht="48">
       <c r="A91" s="54" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B91" s="55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
@@ -3690,9 +3976,13 @@
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
     </row>
-    <row r="92" spans="1:13" ht="11.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="26"/>
+    <row r="92" spans="1:13" ht="48">
+      <c r="A92" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B92" s="55" t="s">
+        <v>94</v>
+      </c>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
@@ -3706,9 +3996,7 @@
       <c r="M92" s="22"/>
     </row>
     <row r="93" spans="1:13" ht="11.25">
-      <c r="A93" s="26" t="s">
-        <v>84</v>
-      </c>
+      <c r="A93" s="26"/>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
@@ -3723,50 +4011,67 @@
       <c r="M93" s="22"/>
     </row>
     <row r="94" spans="1:13" ht="11.25">
-      <c r="A94" s="37" t="s">
+      <c r="A94" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="26"/>
+      <c r="G94" s="26"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="26"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="22"/>
+    </row>
+    <row r="95" spans="1:13" ht="11.25">
+      <c r="A95" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B94" s="36" t="s">
+      <c r="B95" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C94" s="23"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="26"/>
-    </row>
-    <row r="95" spans="1:13" ht="12">
-      <c r="A95" s="47" t="s">
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="26"/>
+    </row>
+    <row r="96" spans="1:13" ht="12">
+      <c r="A96" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B95" s="48" t="s">
+      <c r="B96" s="48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="12">
-      <c r="A96" s="49" t="s">
+    <row r="97" spans="1:2" ht="12">
+      <c r="A97" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="50" t="s">
+      <c r="B97" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="12">
-      <c r="A97" s="51"/>
-      <c r="B97" s="50" t="s">
+    <row r="98" spans="1:2" ht="12">
+      <c r="A98" s="51"/>
+      <c r="B98" s="50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="12">
-      <c r="A98" s="52"/>
-      <c r="B98" s="53" t="s">
+    <row r="99" spans="1:2" ht="12">
+      <c r="A99" s="52"/>
+      <c r="B99" s="53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="48">
-      <c r="A99" s="54" t="s">
+    <row r="100" spans="1:2" ht="48">
+      <c r="A100" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B100" s="55" t="s">
         <v>95</v>
       </c>
     </row>

--- a/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/_image/http_send_sync_ok_pattern.xlsx
+++ b/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/_image/http_send_sync_ok_pattern.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="1020" windowWidth="27135" windowHeight="10740" tabRatio="489"/>
+    <workbookView xWindow="-15" yWindow="3225" windowWidth="28830" windowHeight="10950" tabRatio="489" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="testNormalEndExistAllFields" sheetId="2" r:id="rId1"/>
+    <sheet name="１回送信" sheetId="5" r:id="rId1"/>
+    <sheet name="複数回送信" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Excel_BuiltIn_Print_Area_1">NA()</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="130">
   <si>
     <t>no</t>
   </si>
@@ -446,12 +447,153 @@
     <t>ProjectSaveMessage</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>text-encoding</t>
+  </si>
+  <si>
+    <t>UTF-8</t>
+  </si>
+  <si>
+    <t>XML1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>STATUS_CODE</t>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text-encoding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTF-8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML2</t>
+  </si>
+  <si>
+    <t>XML3</t>
+  </si>
+  <si>
+    <t>全半角</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ハンカク</t>
+    </rPh>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;response&gt;</t>
+  </si>
+  <si>
+    <t>&lt;failureCode&gt;&lt;/failureCode&gt;
+&lt;userInfoId&gt;00000000000000000112&lt;/userInfoId&gt;
+&lt;dataKbn&gt;0&lt;/dataKbn&gt;
+&lt;_nbctlhdr&gt;
+  &lt;statusCode&gt;200&lt;/statusCode&gt;
+&lt;/_nbctlhdr&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;/response&gt;</t>
+  </si>
+  <si>
+    <t>// ユーザ登録情報が送信されること</t>
+    <rPh sb="6" eb="10">
+      <t>トウロクジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8"?&gt;&lt;request&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/request&gt;</t>
+  </si>
+  <si>
+    <t>// 期待値[case2]</t>
+    <rPh sb="3" eb="6">
+      <t>キタイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;dataKbn&gt;2&lt;/dataKbn&gt;
+&lt;loginId&gt;01234567890123456789&lt;/loginId&gt;
+&lt;kanjiName&gt;漢字氏名漢字氏名漢字漢字氏名漢字氏名漢字漢字氏名漢字氏名漢字漢字氏名漢字氏名漢字漢字氏名漢字氏名漢字&lt;/kanjiName&gt;
+&lt;kanaName&gt;カナシメイカナシメイカナシメイカナシメイカナシメイカナシメイカナシメイカナシメイカナシメイカナシメイ&lt;/kanaName&gt;
+&lt;mailAddress&gt;test@test567890.test567890.test567890.test567890.test567890.test567890test567890test567890.tis.co.jp&lt;/mailAddress&gt;
+&lt;extensionNumberBuilding&gt;01&lt;/extensionNumberBuilding&gt;
+&lt;extensionNumberPersonal&gt;0123&lt;/extensionNumberPersonal&gt;
+&lt;mobilePhoneNumberAreaCode&gt;080&lt;/mobilePhoneNumberAreaCode&gt;
+&lt;mobilePhoneNumberCityCode&gt;1234&lt;/mobilePhoneNumberCityCode&gt;
+&lt;mobilePhoneNumberSbscrCode&gt;4567&lt;/mobilePhoneNumberSbscrCode&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESPONSE_HEADER_MESSAGES[case1]=RM11AC0202</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESPONSE_BODY_MESSAGES[case1]=RM11AC0202</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPECTED_REQUEST_HEADER_MESSAGES[case1]=RM11AC0202</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXPECTED_REQUEST_BODY_MESSAGES[case1]=RM11AC0202</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file-type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XML</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="24">
     <font>
       <sz val="8"/>
       <name val="メイリオ"/>
@@ -554,8 +696,56 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,8 +794,14 @@
         <bgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -735,8 +931,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="59"/>
+      </left>
+      <right style="thin">
+        <color indexed="59"/>
+      </right>
+      <top style="thin">
+        <color indexed="59"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="59"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -744,8 +955,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -865,9 +1077,51 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="21" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="5"/>
     <cellStyle name="標準_MessageParserTest" xfId="1"/>
     <cellStyle name="標準_testMenus00102Normal" xfId="2"/>
     <cellStyle name="標準_UserSearchActionRequestTest" xfId="3"/>
@@ -889,6 +1143,513 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2714626</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="線吹き出し 1 (枠付き) 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943351" y="1457325"/>
+          <a:ext cx="2305050" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val 99226"/>
+            <a:gd name="adj4" fmla="val -34879"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>file-type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>を指定する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3133726</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="線吹き出し 1 (枠付き) 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667501" y="1695450"/>
+          <a:ext cx="2305050" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80972"/>
+            <a:gd name="adj2" fmla="val -12465"/>
+            <a:gd name="adj3" fmla="val 241448"/>
+            <a:gd name="adj4" fmla="val -125788"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>フィールド長には</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>"-"(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>ハイフン</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>を指定する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4038601</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1371601</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="線吹き出し 1 (枠付き) 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572376" y="3867150"/>
+          <a:ext cx="2305050" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18750"/>
+            <a:gd name="adj2" fmla="val -8333"/>
+            <a:gd name="adj3" fmla="val -167440"/>
+            <a:gd name="adj4" fmla="val -106780"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>データ部には</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>XML</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>データもしくは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>JSON</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>データを記載する。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1485901</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="線吹き出し 1 (枠付き) 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3467101" y="3933824"/>
+          <a:ext cx="2781299" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 48380"/>
+            <a:gd name="adj2" fmla="val -5107"/>
+            <a:gd name="adj3" fmla="val -87076"/>
+            <a:gd name="adj4" fmla="val -14931"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFCC"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>データ部は分割して記載することが可能である。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="2781300"/>
+          <a:ext cx="8020050" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1016,13 +1777,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1676400</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1077,13 +1838,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1666875</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1138,13 +1899,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2933700</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1197,689 +1958,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2257425</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28575" y="9886951"/>
-          <a:ext cx="2228850" cy="142873"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>9527</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2257424</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1390648</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="角丸四角形 11"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11172827"/>
-          <a:ext cx="2257424" cy="142873"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2143125</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="12306302"/>
-          <a:ext cx="2143125" cy="133348"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>19053</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2124075</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="14582778"/>
-          <a:ext cx="2124074" cy="114298"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13154025"/>
-          <a:ext cx="5648324" cy="1295399"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="線吹き出し 1 (枠付き) 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7191374" y="12973050"/>
-          <a:ext cx="3629026" cy="1038225"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 54782"/>
-            <a:gd name="adj4" fmla="val -42713"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFCC"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>・同一リクエスト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>の電文については、</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>no</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>の値を変えてまとめて記述する。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>・同一リクエスト</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>の場合は、電文の長さを合わせる</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>電文を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>回送信する場合と同様の制約である。テストケース上、同一の長さにできない場合は、手動でテストを行うこと。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2047873</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1276349</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="線吹き出し 1 (枠付き) 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4733923" y="9534525"/>
-          <a:ext cx="4572001" cy="428626"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 54782"/>
-            <a:gd name="adj4" fmla="val -53212"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFCC"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>同一データタイプ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ここでは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>"EXPECTED_REQUEST_HEADER_MESSAGESS"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>"EXPECTED_REQUEST_BODY_MESSAGESS")</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>は、それぞれ、まとめて記述する。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="+mn-ea"/>
-            <a:ea typeface="+mn-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209548</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>942974</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1888,15 +1976,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143748" y="5534024"/>
-          <a:ext cx="3314701" cy="1123951"/>
+          <a:off x="4076698" y="5267325"/>
+          <a:ext cx="4000502" cy="447676"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 18750"/>
-            <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 58172"/>
-            <a:gd name="adj4" fmla="val -52925"/>
+            <a:gd name="adj1" fmla="val 48537"/>
+            <a:gd name="adj2" fmla="val -5714"/>
+            <a:gd name="adj3" fmla="val 309235"/>
+            <a:gd name="adj4" fmla="val -22449"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2015,69 +2103,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>電文を</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>回送信する場合と同様の制約である。テストケース上、同一の長さにできない場合は、手動でテストを行うこと。</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
             <a:solidFill>
               <a:sysClr val="windowText" lastClr="000000"/>
@@ -2098,8 +2123,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
@@ -2110,15 +2135,15 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2933698" y="2181225"/>
-          <a:ext cx="4572001" cy="428626"/>
+          <a:off x="2933698" y="2362200"/>
+          <a:ext cx="2943227" cy="428626"/>
         </a:xfrm>
         <a:prstGeom prst="borderCallout1">
           <a:avLst>
             <a:gd name="adj1" fmla="val 18750"/>
             <a:gd name="adj2" fmla="val -8333"/>
-            <a:gd name="adj3" fmla="val 99226"/>
-            <a:gd name="adj4" fmla="val -34879"/>
+            <a:gd name="adj3" fmla="val 101448"/>
+            <a:gd name="adj4" fmla="val -38439"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -2159,67 +2184,7 @@
               <a:latin typeface="+mn-ea"/>
               <a:ea typeface="+mn-ea"/>
             </a:rPr>
-            <a:t>同一データタイプ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>ここでは</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>"RESPONSE_HEADER_MESSAGES"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>と</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>"RESPONSE_BODY_MESSAGES")</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-ea"/>
-              <a:ea typeface="+mn-ea"/>
-            </a:rPr>
-            <a:t>は、それぞれ、まとめて記述する。</a:t>
+            <a:t>同一データタイプは、それぞれまとめて記述する。</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -2526,11 +2491,2112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IH38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="22" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.7109375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="68" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" style="68" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="68" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" style="68" customWidth="1"/>
+    <col min="7" max="8" width="23.28515625" style="68" customWidth="1"/>
+    <col min="9" max="9" width="24.85546875" style="68" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="68" customWidth="1"/>
+    <col min="11" max="256" width="22" style="59"/>
+    <col min="257" max="257" width="29.7109375" style="59" customWidth="1"/>
+    <col min="258" max="258" width="23.28515625" style="59" customWidth="1"/>
+    <col min="259" max="259" width="74.5703125" style="59" customWidth="1"/>
+    <col min="260" max="260" width="22.28515625" style="59" customWidth="1"/>
+    <col min="261" max="261" width="23.7109375" style="59" customWidth="1"/>
+    <col min="262" max="262" width="23.85546875" style="59" customWidth="1"/>
+    <col min="263" max="264" width="23.28515625" style="59" customWidth="1"/>
+    <col min="265" max="265" width="24.85546875" style="59" customWidth="1"/>
+    <col min="266" max="266" width="20.28515625" style="59" customWidth="1"/>
+    <col min="267" max="512" width="22" style="59"/>
+    <col min="513" max="513" width="29.7109375" style="59" customWidth="1"/>
+    <col min="514" max="514" width="23.28515625" style="59" customWidth="1"/>
+    <col min="515" max="515" width="74.5703125" style="59" customWidth="1"/>
+    <col min="516" max="516" width="22.28515625" style="59" customWidth="1"/>
+    <col min="517" max="517" width="23.7109375" style="59" customWidth="1"/>
+    <col min="518" max="518" width="23.85546875" style="59" customWidth="1"/>
+    <col min="519" max="520" width="23.28515625" style="59" customWidth="1"/>
+    <col min="521" max="521" width="24.85546875" style="59" customWidth="1"/>
+    <col min="522" max="522" width="20.28515625" style="59" customWidth="1"/>
+    <col min="523" max="768" width="22" style="59"/>
+    <col min="769" max="769" width="29.7109375" style="59" customWidth="1"/>
+    <col min="770" max="770" width="23.28515625" style="59" customWidth="1"/>
+    <col min="771" max="771" width="74.5703125" style="59" customWidth="1"/>
+    <col min="772" max="772" width="22.28515625" style="59" customWidth="1"/>
+    <col min="773" max="773" width="23.7109375" style="59" customWidth="1"/>
+    <col min="774" max="774" width="23.85546875" style="59" customWidth="1"/>
+    <col min="775" max="776" width="23.28515625" style="59" customWidth="1"/>
+    <col min="777" max="777" width="24.85546875" style="59" customWidth="1"/>
+    <col min="778" max="778" width="20.28515625" style="59" customWidth="1"/>
+    <col min="779" max="1024" width="22" style="59"/>
+    <col min="1025" max="1025" width="29.7109375" style="59" customWidth="1"/>
+    <col min="1026" max="1026" width="23.28515625" style="59" customWidth="1"/>
+    <col min="1027" max="1027" width="74.5703125" style="59" customWidth="1"/>
+    <col min="1028" max="1028" width="22.28515625" style="59" customWidth="1"/>
+    <col min="1029" max="1029" width="23.7109375" style="59" customWidth="1"/>
+    <col min="1030" max="1030" width="23.85546875" style="59" customWidth="1"/>
+    <col min="1031" max="1032" width="23.28515625" style="59" customWidth="1"/>
+    <col min="1033" max="1033" width="24.85546875" style="59" customWidth="1"/>
+    <col min="1034" max="1034" width="20.28515625" style="59" customWidth="1"/>
+    <col min="1035" max="1280" width="22" style="59"/>
+    <col min="1281" max="1281" width="29.7109375" style="59" customWidth="1"/>
+    <col min="1282" max="1282" width="23.28515625" style="59" customWidth="1"/>
+    <col min="1283" max="1283" width="74.5703125" style="59" customWidth="1"/>
+    <col min="1284" max="1284" width="22.28515625" style="59" customWidth="1"/>
+    <col min="1285" max="1285" width="23.7109375" style="59" customWidth="1"/>
+    <col min="1286" max="1286" width="23.85546875" style="59" customWidth="1"/>
+    <col min="1287" max="1288" width="23.28515625" style="59" customWidth="1"/>
+    <col min="1289" max="1289" width="24.85546875" style="59" customWidth="1"/>
+    <col min="1290" max="1290" width="20.28515625" style="59" customWidth="1"/>
+    <col min="1291" max="1536" width="22" style="59"/>
+    <col min="1537" max="1537" width="29.7109375" style="59" customWidth="1"/>
+    <col min="1538" max="1538" width="23.28515625" style="59" customWidth="1"/>
+    <col min="1539" max="1539" width="74.5703125" style="59" customWidth="1"/>
+    <col min="1540" max="1540" width="22.28515625" style="59" customWidth="1"/>
+    <col min="1541" max="1541" width="23.7109375" style="59" customWidth="1"/>
+    <col min="1542" max="1542" width="23.85546875" style="59" customWidth="1"/>
+    <col min="1543" max="1544" width="23.28515625" style="59" customWidth="1"/>
+    <col min="1545" max="1545" width="24.85546875" style="59" customWidth="1"/>
+    <col min="1546" max="1546" width="20.28515625" style="59" customWidth="1"/>
+    <col min="1547" max="1792" width="22" style="59"/>
+    <col min="1793" max="1793" width="29.7109375" style="59" customWidth="1"/>
+    <col min="1794" max="1794" width="23.28515625" style="59" customWidth="1"/>
+    <col min="1795" max="1795" width="74.5703125" style="59" customWidth="1"/>
+    <col min="1796" max="1796" width="22.28515625" style="59" customWidth="1"/>
+    <col min="1797" max="1797" width="23.7109375" style="59" customWidth="1"/>
+    <col min="1798" max="1798" width="23.85546875" style="59" customWidth="1"/>
+    <col min="1799" max="1800" width="23.28515625" style="59" customWidth="1"/>
+    <col min="1801" max="1801" width="24.85546875" style="59" customWidth="1"/>
+    <col min="1802" max="1802" width="20.28515625" style="59" customWidth="1"/>
+    <col min="1803" max="2048" width="22" style="59"/>
+    <col min="2049" max="2049" width="29.7109375" style="59" customWidth="1"/>
+    <col min="2050" max="2050" width="23.28515625" style="59" customWidth="1"/>
+    <col min="2051" max="2051" width="74.5703125" style="59" customWidth="1"/>
+    <col min="2052" max="2052" width="22.28515625" style="59" customWidth="1"/>
+    <col min="2053" max="2053" width="23.7109375" style="59" customWidth="1"/>
+    <col min="2054" max="2054" width="23.85546875" style="59" customWidth="1"/>
+    <col min="2055" max="2056" width="23.28515625" style="59" customWidth="1"/>
+    <col min="2057" max="2057" width="24.85546875" style="59" customWidth="1"/>
+    <col min="2058" max="2058" width="20.28515625" style="59" customWidth="1"/>
+    <col min="2059" max="2304" width="22" style="59"/>
+    <col min="2305" max="2305" width="29.7109375" style="59" customWidth="1"/>
+    <col min="2306" max="2306" width="23.28515625" style="59" customWidth="1"/>
+    <col min="2307" max="2307" width="74.5703125" style="59" customWidth="1"/>
+    <col min="2308" max="2308" width="22.28515625" style="59" customWidth="1"/>
+    <col min="2309" max="2309" width="23.7109375" style="59" customWidth="1"/>
+    <col min="2310" max="2310" width="23.85546875" style="59" customWidth="1"/>
+    <col min="2311" max="2312" width="23.28515625" style="59" customWidth="1"/>
+    <col min="2313" max="2313" width="24.85546875" style="59" customWidth="1"/>
+    <col min="2314" max="2314" width="20.28515625" style="59" customWidth="1"/>
+    <col min="2315" max="2560" width="22" style="59"/>
+    <col min="2561" max="2561" width="29.7109375" style="59" customWidth="1"/>
+    <col min="2562" max="2562" width="23.28515625" style="59" customWidth="1"/>
+    <col min="2563" max="2563" width="74.5703125" style="59" customWidth="1"/>
+    <col min="2564" max="2564" width="22.28515625" style="59" customWidth="1"/>
+    <col min="2565" max="2565" width="23.7109375" style="59" customWidth="1"/>
+    <col min="2566" max="2566" width="23.85546875" style="59" customWidth="1"/>
+    <col min="2567" max="2568" width="23.28515625" style="59" customWidth="1"/>
+    <col min="2569" max="2569" width="24.85546875" style="59" customWidth="1"/>
+    <col min="2570" max="2570" width="20.28515625" style="59" customWidth="1"/>
+    <col min="2571" max="2816" width="22" style="59"/>
+    <col min="2817" max="2817" width="29.7109375" style="59" customWidth="1"/>
+    <col min="2818" max="2818" width="23.28515625" style="59" customWidth="1"/>
+    <col min="2819" max="2819" width="74.5703125" style="59" customWidth="1"/>
+    <col min="2820" max="2820" width="22.28515625" style="59" customWidth="1"/>
+    <col min="2821" max="2821" width="23.7109375" style="59" customWidth="1"/>
+    <col min="2822" max="2822" width="23.85546875" style="59" customWidth="1"/>
+    <col min="2823" max="2824" width="23.28515625" style="59" customWidth="1"/>
+    <col min="2825" max="2825" width="24.85546875" style="59" customWidth="1"/>
+    <col min="2826" max="2826" width="20.28515625" style="59" customWidth="1"/>
+    <col min="2827" max="3072" width="22" style="59"/>
+    <col min="3073" max="3073" width="29.7109375" style="59" customWidth="1"/>
+    <col min="3074" max="3074" width="23.28515625" style="59" customWidth="1"/>
+    <col min="3075" max="3075" width="74.5703125" style="59" customWidth="1"/>
+    <col min="3076" max="3076" width="22.28515625" style="59" customWidth="1"/>
+    <col min="3077" max="3077" width="23.7109375" style="59" customWidth="1"/>
+    <col min="3078" max="3078" width="23.85546875" style="59" customWidth="1"/>
+    <col min="3079" max="3080" width="23.28515625" style="59" customWidth="1"/>
+    <col min="3081" max="3081" width="24.85546875" style="59" customWidth="1"/>
+    <col min="3082" max="3082" width="20.28515625" style="59" customWidth="1"/>
+    <col min="3083" max="3328" width="22" style="59"/>
+    <col min="3329" max="3329" width="29.7109375" style="59" customWidth="1"/>
+    <col min="3330" max="3330" width="23.28515625" style="59" customWidth="1"/>
+    <col min="3331" max="3331" width="74.5703125" style="59" customWidth="1"/>
+    <col min="3332" max="3332" width="22.28515625" style="59" customWidth="1"/>
+    <col min="3333" max="3333" width="23.7109375" style="59" customWidth="1"/>
+    <col min="3334" max="3334" width="23.85546875" style="59" customWidth="1"/>
+    <col min="3335" max="3336" width="23.28515625" style="59" customWidth="1"/>
+    <col min="3337" max="3337" width="24.85546875" style="59" customWidth="1"/>
+    <col min="3338" max="3338" width="20.28515625" style="59" customWidth="1"/>
+    <col min="3339" max="3584" width="22" style="59"/>
+    <col min="3585" max="3585" width="29.7109375" style="59" customWidth="1"/>
+    <col min="3586" max="3586" width="23.28515625" style="59" customWidth="1"/>
+    <col min="3587" max="3587" width="74.5703125" style="59" customWidth="1"/>
+    <col min="3588" max="3588" width="22.28515625" style="59" customWidth="1"/>
+    <col min="3589" max="3589" width="23.7109375" style="59" customWidth="1"/>
+    <col min="3590" max="3590" width="23.85546875" style="59" customWidth="1"/>
+    <col min="3591" max="3592" width="23.28515625" style="59" customWidth="1"/>
+    <col min="3593" max="3593" width="24.85546875" style="59" customWidth="1"/>
+    <col min="3594" max="3594" width="20.28515625" style="59" customWidth="1"/>
+    <col min="3595" max="3840" width="22" style="59"/>
+    <col min="3841" max="3841" width="29.7109375" style="59" customWidth="1"/>
+    <col min="3842" max="3842" width="23.28515625" style="59" customWidth="1"/>
+    <col min="3843" max="3843" width="74.5703125" style="59" customWidth="1"/>
+    <col min="3844" max="3844" width="22.28515625" style="59" customWidth="1"/>
+    <col min="3845" max="3845" width="23.7109375" style="59" customWidth="1"/>
+    <col min="3846" max="3846" width="23.85546875" style="59" customWidth="1"/>
+    <col min="3847" max="3848" width="23.28515625" style="59" customWidth="1"/>
+    <col min="3849" max="3849" width="24.85546875" style="59" customWidth="1"/>
+    <col min="3850" max="3850" width="20.28515625" style="59" customWidth="1"/>
+    <col min="3851" max="4096" width="22" style="59"/>
+    <col min="4097" max="4097" width="29.7109375" style="59" customWidth="1"/>
+    <col min="4098" max="4098" width="23.28515625" style="59" customWidth="1"/>
+    <col min="4099" max="4099" width="74.5703125" style="59" customWidth="1"/>
+    <col min="4100" max="4100" width="22.28515625" style="59" customWidth="1"/>
+    <col min="4101" max="4101" width="23.7109375" style="59" customWidth="1"/>
+    <col min="4102" max="4102" width="23.85546875" style="59" customWidth="1"/>
+    <col min="4103" max="4104" width="23.28515625" style="59" customWidth="1"/>
+    <col min="4105" max="4105" width="24.85546875" style="59" customWidth="1"/>
+    <col min="4106" max="4106" width="20.28515625" style="59" customWidth="1"/>
+    <col min="4107" max="4352" width="22" style="59"/>
+    <col min="4353" max="4353" width="29.7109375" style="59" customWidth="1"/>
+    <col min="4354" max="4354" width="23.28515625" style="59" customWidth="1"/>
+    <col min="4355" max="4355" width="74.5703125" style="59" customWidth="1"/>
+    <col min="4356" max="4356" width="22.28515625" style="59" customWidth="1"/>
+    <col min="4357" max="4357" width="23.7109375" style="59" customWidth="1"/>
+    <col min="4358" max="4358" width="23.85546875" style="59" customWidth="1"/>
+    <col min="4359" max="4360" width="23.28515625" style="59" customWidth="1"/>
+    <col min="4361" max="4361" width="24.85546875" style="59" customWidth="1"/>
+    <col min="4362" max="4362" width="20.28515625" style="59" customWidth="1"/>
+    <col min="4363" max="4608" width="22" style="59"/>
+    <col min="4609" max="4609" width="29.7109375" style="59" customWidth="1"/>
+    <col min="4610" max="4610" width="23.28515625" style="59" customWidth="1"/>
+    <col min="4611" max="4611" width="74.5703125" style="59" customWidth="1"/>
+    <col min="4612" max="4612" width="22.28515625" style="59" customWidth="1"/>
+    <col min="4613" max="4613" width="23.7109375" style="59" customWidth="1"/>
+    <col min="4614" max="4614" width="23.85546875" style="59" customWidth="1"/>
+    <col min="4615" max="4616" width="23.28515625" style="59" customWidth="1"/>
+    <col min="4617" max="4617" width="24.85546875" style="59" customWidth="1"/>
+    <col min="4618" max="4618" width="20.28515625" style="59" customWidth="1"/>
+    <col min="4619" max="4864" width="22" style="59"/>
+    <col min="4865" max="4865" width="29.7109375" style="59" customWidth="1"/>
+    <col min="4866" max="4866" width="23.28515625" style="59" customWidth="1"/>
+    <col min="4867" max="4867" width="74.5703125" style="59" customWidth="1"/>
+    <col min="4868" max="4868" width="22.28515625" style="59" customWidth="1"/>
+    <col min="4869" max="4869" width="23.7109375" style="59" customWidth="1"/>
+    <col min="4870" max="4870" width="23.85546875" style="59" customWidth="1"/>
+    <col min="4871" max="4872" width="23.28515625" style="59" customWidth="1"/>
+    <col min="4873" max="4873" width="24.85546875" style="59" customWidth="1"/>
+    <col min="4874" max="4874" width="20.28515625" style="59" customWidth="1"/>
+    <col min="4875" max="5120" width="22" style="59"/>
+    <col min="5121" max="5121" width="29.7109375" style="59" customWidth="1"/>
+    <col min="5122" max="5122" width="23.28515625" style="59" customWidth="1"/>
+    <col min="5123" max="5123" width="74.5703125" style="59" customWidth="1"/>
+    <col min="5124" max="5124" width="22.28515625" style="59" customWidth="1"/>
+    <col min="5125" max="5125" width="23.7109375" style="59" customWidth="1"/>
+    <col min="5126" max="5126" width="23.85546875" style="59" customWidth="1"/>
+    <col min="5127" max="5128" width="23.28515625" style="59" customWidth="1"/>
+    <col min="5129" max="5129" width="24.85546875" style="59" customWidth="1"/>
+    <col min="5130" max="5130" width="20.28515625" style="59" customWidth="1"/>
+    <col min="5131" max="5376" width="22" style="59"/>
+    <col min="5377" max="5377" width="29.7109375" style="59" customWidth="1"/>
+    <col min="5378" max="5378" width="23.28515625" style="59" customWidth="1"/>
+    <col min="5379" max="5379" width="74.5703125" style="59" customWidth="1"/>
+    <col min="5380" max="5380" width="22.28515625" style="59" customWidth="1"/>
+    <col min="5381" max="5381" width="23.7109375" style="59" customWidth="1"/>
+    <col min="5382" max="5382" width="23.85546875" style="59" customWidth="1"/>
+    <col min="5383" max="5384" width="23.28515625" style="59" customWidth="1"/>
+    <col min="5385" max="5385" width="24.85546875" style="59" customWidth="1"/>
+    <col min="5386" max="5386" width="20.28515625" style="59" customWidth="1"/>
+    <col min="5387" max="5632" width="22" style="59"/>
+    <col min="5633" max="5633" width="29.7109375" style="59" customWidth="1"/>
+    <col min="5634" max="5634" width="23.28515625" style="59" customWidth="1"/>
+    <col min="5635" max="5635" width="74.5703125" style="59" customWidth="1"/>
+    <col min="5636" max="5636" width="22.28515625" style="59" customWidth="1"/>
+    <col min="5637" max="5637" width="23.7109375" style="59" customWidth="1"/>
+    <col min="5638" max="5638" width="23.85546875" style="59" customWidth="1"/>
+    <col min="5639" max="5640" width="23.28515625" style="59" customWidth="1"/>
+    <col min="5641" max="5641" width="24.85546875" style="59" customWidth="1"/>
+    <col min="5642" max="5642" width="20.28515625" style="59" customWidth="1"/>
+    <col min="5643" max="5888" width="22" style="59"/>
+    <col min="5889" max="5889" width="29.7109375" style="59" customWidth="1"/>
+    <col min="5890" max="5890" width="23.28515625" style="59" customWidth="1"/>
+    <col min="5891" max="5891" width="74.5703125" style="59" customWidth="1"/>
+    <col min="5892" max="5892" width="22.28515625" style="59" customWidth="1"/>
+    <col min="5893" max="5893" width="23.7109375" style="59" customWidth="1"/>
+    <col min="5894" max="5894" width="23.85546875" style="59" customWidth="1"/>
+    <col min="5895" max="5896" width="23.28515625" style="59" customWidth="1"/>
+    <col min="5897" max="5897" width="24.85546875" style="59" customWidth="1"/>
+    <col min="5898" max="5898" width="20.28515625" style="59" customWidth="1"/>
+    <col min="5899" max="6144" width="22" style="59"/>
+    <col min="6145" max="6145" width="29.7109375" style="59" customWidth="1"/>
+    <col min="6146" max="6146" width="23.28515625" style="59" customWidth="1"/>
+    <col min="6147" max="6147" width="74.5703125" style="59" customWidth="1"/>
+    <col min="6148" max="6148" width="22.28515625" style="59" customWidth="1"/>
+    <col min="6149" max="6149" width="23.7109375" style="59" customWidth="1"/>
+    <col min="6150" max="6150" width="23.85546875" style="59" customWidth="1"/>
+    <col min="6151" max="6152" width="23.28515625" style="59" customWidth="1"/>
+    <col min="6153" max="6153" width="24.85546875" style="59" customWidth="1"/>
+    <col min="6154" max="6154" width="20.28515625" style="59" customWidth="1"/>
+    <col min="6155" max="6400" width="22" style="59"/>
+    <col min="6401" max="6401" width="29.7109375" style="59" customWidth="1"/>
+    <col min="6402" max="6402" width="23.28515625" style="59" customWidth="1"/>
+    <col min="6403" max="6403" width="74.5703125" style="59" customWidth="1"/>
+    <col min="6404" max="6404" width="22.28515625" style="59" customWidth="1"/>
+    <col min="6405" max="6405" width="23.7109375" style="59" customWidth="1"/>
+    <col min="6406" max="6406" width="23.85546875" style="59" customWidth="1"/>
+    <col min="6407" max="6408" width="23.28515625" style="59" customWidth="1"/>
+    <col min="6409" max="6409" width="24.85546875" style="59" customWidth="1"/>
+    <col min="6410" max="6410" width="20.28515625" style="59" customWidth="1"/>
+    <col min="6411" max="6656" width="22" style="59"/>
+    <col min="6657" max="6657" width="29.7109375" style="59" customWidth="1"/>
+    <col min="6658" max="6658" width="23.28515625" style="59" customWidth="1"/>
+    <col min="6659" max="6659" width="74.5703125" style="59" customWidth="1"/>
+    <col min="6660" max="6660" width="22.28515625" style="59" customWidth="1"/>
+    <col min="6661" max="6661" width="23.7109375" style="59" customWidth="1"/>
+    <col min="6662" max="6662" width="23.85546875" style="59" customWidth="1"/>
+    <col min="6663" max="6664" width="23.28515625" style="59" customWidth="1"/>
+    <col min="6665" max="6665" width="24.85546875" style="59" customWidth="1"/>
+    <col min="6666" max="6666" width="20.28515625" style="59" customWidth="1"/>
+    <col min="6667" max="6912" width="22" style="59"/>
+    <col min="6913" max="6913" width="29.7109375" style="59" customWidth="1"/>
+    <col min="6914" max="6914" width="23.28515625" style="59" customWidth="1"/>
+    <col min="6915" max="6915" width="74.5703125" style="59" customWidth="1"/>
+    <col min="6916" max="6916" width="22.28515625" style="59" customWidth="1"/>
+    <col min="6917" max="6917" width="23.7109375" style="59" customWidth="1"/>
+    <col min="6918" max="6918" width="23.85546875" style="59" customWidth="1"/>
+    <col min="6919" max="6920" width="23.28515625" style="59" customWidth="1"/>
+    <col min="6921" max="6921" width="24.85546875" style="59" customWidth="1"/>
+    <col min="6922" max="6922" width="20.28515625" style="59" customWidth="1"/>
+    <col min="6923" max="7168" width="22" style="59"/>
+    <col min="7169" max="7169" width="29.7109375" style="59" customWidth="1"/>
+    <col min="7170" max="7170" width="23.28515625" style="59" customWidth="1"/>
+    <col min="7171" max="7171" width="74.5703125" style="59" customWidth="1"/>
+    <col min="7172" max="7172" width="22.28515625" style="59" customWidth="1"/>
+    <col min="7173" max="7173" width="23.7109375" style="59" customWidth="1"/>
+    <col min="7174" max="7174" width="23.85546875" style="59" customWidth="1"/>
+    <col min="7175" max="7176" width="23.28515625" style="59" customWidth="1"/>
+    <col min="7177" max="7177" width="24.85546875" style="59" customWidth="1"/>
+    <col min="7178" max="7178" width="20.28515625" style="59" customWidth="1"/>
+    <col min="7179" max="7424" width="22" style="59"/>
+    <col min="7425" max="7425" width="29.7109375" style="59" customWidth="1"/>
+    <col min="7426" max="7426" width="23.28515625" style="59" customWidth="1"/>
+    <col min="7427" max="7427" width="74.5703125" style="59" customWidth="1"/>
+    <col min="7428" max="7428" width="22.28515625" style="59" customWidth="1"/>
+    <col min="7429" max="7429" width="23.7109375" style="59" customWidth="1"/>
+    <col min="7430" max="7430" width="23.85546875" style="59" customWidth="1"/>
+    <col min="7431" max="7432" width="23.28515625" style="59" customWidth="1"/>
+    <col min="7433" max="7433" width="24.85546875" style="59" customWidth="1"/>
+    <col min="7434" max="7434" width="20.28515625" style="59" customWidth="1"/>
+    <col min="7435" max="7680" width="22" style="59"/>
+    <col min="7681" max="7681" width="29.7109375" style="59" customWidth="1"/>
+    <col min="7682" max="7682" width="23.28515625" style="59" customWidth="1"/>
+    <col min="7683" max="7683" width="74.5703125" style="59" customWidth="1"/>
+    <col min="7684" max="7684" width="22.28515625" style="59" customWidth="1"/>
+    <col min="7685" max="7685" width="23.7109375" style="59" customWidth="1"/>
+    <col min="7686" max="7686" width="23.85546875" style="59" customWidth="1"/>
+    <col min="7687" max="7688" width="23.28515625" style="59" customWidth="1"/>
+    <col min="7689" max="7689" width="24.85546875" style="59" customWidth="1"/>
+    <col min="7690" max="7690" width="20.28515625" style="59" customWidth="1"/>
+    <col min="7691" max="7936" width="22" style="59"/>
+    <col min="7937" max="7937" width="29.7109375" style="59" customWidth="1"/>
+    <col min="7938" max="7938" width="23.28515625" style="59" customWidth="1"/>
+    <col min="7939" max="7939" width="74.5703125" style="59" customWidth="1"/>
+    <col min="7940" max="7940" width="22.28515625" style="59" customWidth="1"/>
+    <col min="7941" max="7941" width="23.7109375" style="59" customWidth="1"/>
+    <col min="7942" max="7942" width="23.85546875" style="59" customWidth="1"/>
+    <col min="7943" max="7944" width="23.28515625" style="59" customWidth="1"/>
+    <col min="7945" max="7945" width="24.85546875" style="59" customWidth="1"/>
+    <col min="7946" max="7946" width="20.28515625" style="59" customWidth="1"/>
+    <col min="7947" max="8192" width="22" style="59"/>
+    <col min="8193" max="8193" width="29.7109375" style="59" customWidth="1"/>
+    <col min="8194" max="8194" width="23.28515625" style="59" customWidth="1"/>
+    <col min="8195" max="8195" width="74.5703125" style="59" customWidth="1"/>
+    <col min="8196" max="8196" width="22.28515625" style="59" customWidth="1"/>
+    <col min="8197" max="8197" width="23.7109375" style="59" customWidth="1"/>
+    <col min="8198" max="8198" width="23.85546875" style="59" customWidth="1"/>
+    <col min="8199" max="8200" width="23.28515625" style="59" customWidth="1"/>
+    <col min="8201" max="8201" width="24.85546875" style="59" customWidth="1"/>
+    <col min="8202" max="8202" width="20.28515625" style="59" customWidth="1"/>
+    <col min="8203" max="8448" width="22" style="59"/>
+    <col min="8449" max="8449" width="29.7109375" style="59" customWidth="1"/>
+    <col min="8450" max="8450" width="23.28515625" style="59" customWidth="1"/>
+    <col min="8451" max="8451" width="74.5703125" style="59" customWidth="1"/>
+    <col min="8452" max="8452" width="22.28515625" style="59" customWidth="1"/>
+    <col min="8453" max="8453" width="23.7109375" style="59" customWidth="1"/>
+    <col min="8454" max="8454" width="23.85546875" style="59" customWidth="1"/>
+    <col min="8455" max="8456" width="23.28515625" style="59" customWidth="1"/>
+    <col min="8457" max="8457" width="24.85546875" style="59" customWidth="1"/>
+    <col min="8458" max="8458" width="20.28515625" style="59" customWidth="1"/>
+    <col min="8459" max="8704" width="22" style="59"/>
+    <col min="8705" max="8705" width="29.7109375" style="59" customWidth="1"/>
+    <col min="8706" max="8706" width="23.28515625" style="59" customWidth="1"/>
+    <col min="8707" max="8707" width="74.5703125" style="59" customWidth="1"/>
+    <col min="8708" max="8708" width="22.28515625" style="59" customWidth="1"/>
+    <col min="8709" max="8709" width="23.7109375" style="59" customWidth="1"/>
+    <col min="8710" max="8710" width="23.85546875" style="59" customWidth="1"/>
+    <col min="8711" max="8712" width="23.28515625" style="59" customWidth="1"/>
+    <col min="8713" max="8713" width="24.85546875" style="59" customWidth="1"/>
+    <col min="8714" max="8714" width="20.28515625" style="59" customWidth="1"/>
+    <col min="8715" max="8960" width="22" style="59"/>
+    <col min="8961" max="8961" width="29.7109375" style="59" customWidth="1"/>
+    <col min="8962" max="8962" width="23.28515625" style="59" customWidth="1"/>
+    <col min="8963" max="8963" width="74.5703125" style="59" customWidth="1"/>
+    <col min="8964" max="8964" width="22.28515625" style="59" customWidth="1"/>
+    <col min="8965" max="8965" width="23.7109375" style="59" customWidth="1"/>
+    <col min="8966" max="8966" width="23.85546875" style="59" customWidth="1"/>
+    <col min="8967" max="8968" width="23.28515625" style="59" customWidth="1"/>
+    <col min="8969" max="8969" width="24.85546875" style="59" customWidth="1"/>
+    <col min="8970" max="8970" width="20.28515625" style="59" customWidth="1"/>
+    <col min="8971" max="9216" width="22" style="59"/>
+    <col min="9217" max="9217" width="29.7109375" style="59" customWidth="1"/>
+    <col min="9218" max="9218" width="23.28515625" style="59" customWidth="1"/>
+    <col min="9219" max="9219" width="74.5703125" style="59" customWidth="1"/>
+    <col min="9220" max="9220" width="22.28515625" style="59" customWidth="1"/>
+    <col min="9221" max="9221" width="23.7109375" style="59" customWidth="1"/>
+    <col min="9222" max="9222" width="23.85546875" style="59" customWidth="1"/>
+    <col min="9223" max="9224" width="23.28515625" style="59" customWidth="1"/>
+    <col min="9225" max="9225" width="24.85546875" style="59" customWidth="1"/>
+    <col min="9226" max="9226" width="20.28515625" style="59" customWidth="1"/>
+    <col min="9227" max="9472" width="22" style="59"/>
+    <col min="9473" max="9473" width="29.7109375" style="59" customWidth="1"/>
+    <col min="9474" max="9474" width="23.28515625" style="59" customWidth="1"/>
+    <col min="9475" max="9475" width="74.5703125" style="59" customWidth="1"/>
+    <col min="9476" max="9476" width="22.28515625" style="59" customWidth="1"/>
+    <col min="9477" max="9477" width="23.7109375" style="59" customWidth="1"/>
+    <col min="9478" max="9478" width="23.85546875" style="59" customWidth="1"/>
+    <col min="9479" max="9480" width="23.28515625" style="59" customWidth="1"/>
+    <col min="9481" max="9481" width="24.85546875" style="59" customWidth="1"/>
+    <col min="9482" max="9482" width="20.28515625" style="59" customWidth="1"/>
+    <col min="9483" max="9728" width="22" style="59"/>
+    <col min="9729" max="9729" width="29.7109375" style="59" customWidth="1"/>
+    <col min="9730" max="9730" width="23.28515625" style="59" customWidth="1"/>
+    <col min="9731" max="9731" width="74.5703125" style="59" customWidth="1"/>
+    <col min="9732" max="9732" width="22.28515625" style="59" customWidth="1"/>
+    <col min="9733" max="9733" width="23.7109375" style="59" customWidth="1"/>
+    <col min="9734" max="9734" width="23.85546875" style="59" customWidth="1"/>
+    <col min="9735" max="9736" width="23.28515625" style="59" customWidth="1"/>
+    <col min="9737" max="9737" width="24.85546875" style="59" customWidth="1"/>
+    <col min="9738" max="9738" width="20.28515625" style="59" customWidth="1"/>
+    <col min="9739" max="9984" width="22" style="59"/>
+    <col min="9985" max="9985" width="29.7109375" style="59" customWidth="1"/>
+    <col min="9986" max="9986" width="23.28515625" style="59" customWidth="1"/>
+    <col min="9987" max="9987" width="74.5703125" style="59" customWidth="1"/>
+    <col min="9988" max="9988" width="22.28515625" style="59" customWidth="1"/>
+    <col min="9989" max="9989" width="23.7109375" style="59" customWidth="1"/>
+    <col min="9990" max="9990" width="23.85546875" style="59" customWidth="1"/>
+    <col min="9991" max="9992" width="23.28515625" style="59" customWidth="1"/>
+    <col min="9993" max="9993" width="24.85546875" style="59" customWidth="1"/>
+    <col min="9994" max="9994" width="20.28515625" style="59" customWidth="1"/>
+    <col min="9995" max="10240" width="22" style="59"/>
+    <col min="10241" max="10241" width="29.7109375" style="59" customWidth="1"/>
+    <col min="10242" max="10242" width="23.28515625" style="59" customWidth="1"/>
+    <col min="10243" max="10243" width="74.5703125" style="59" customWidth="1"/>
+    <col min="10244" max="10244" width="22.28515625" style="59" customWidth="1"/>
+    <col min="10245" max="10245" width="23.7109375" style="59" customWidth="1"/>
+    <col min="10246" max="10246" width="23.85546875" style="59" customWidth="1"/>
+    <col min="10247" max="10248" width="23.28515625" style="59" customWidth="1"/>
+    <col min="10249" max="10249" width="24.85546875" style="59" customWidth="1"/>
+    <col min="10250" max="10250" width="20.28515625" style="59" customWidth="1"/>
+    <col min="10251" max="10496" width="22" style="59"/>
+    <col min="10497" max="10497" width="29.7109375" style="59" customWidth="1"/>
+    <col min="10498" max="10498" width="23.28515625" style="59" customWidth="1"/>
+    <col min="10499" max="10499" width="74.5703125" style="59" customWidth="1"/>
+    <col min="10500" max="10500" width="22.28515625" style="59" customWidth="1"/>
+    <col min="10501" max="10501" width="23.7109375" style="59" customWidth="1"/>
+    <col min="10502" max="10502" width="23.85546875" style="59" customWidth="1"/>
+    <col min="10503" max="10504" width="23.28515625" style="59" customWidth="1"/>
+    <col min="10505" max="10505" width="24.85546875" style="59" customWidth="1"/>
+    <col min="10506" max="10506" width="20.28515625" style="59" customWidth="1"/>
+    <col min="10507" max="10752" width="22" style="59"/>
+    <col min="10753" max="10753" width="29.7109375" style="59" customWidth="1"/>
+    <col min="10754" max="10754" width="23.28515625" style="59" customWidth="1"/>
+    <col min="10755" max="10755" width="74.5703125" style="59" customWidth="1"/>
+    <col min="10756" max="10756" width="22.28515625" style="59" customWidth="1"/>
+    <col min="10757" max="10757" width="23.7109375" style="59" customWidth="1"/>
+    <col min="10758" max="10758" width="23.85546875" style="59" customWidth="1"/>
+    <col min="10759" max="10760" width="23.28515625" style="59" customWidth="1"/>
+    <col min="10761" max="10761" width="24.85546875" style="59" customWidth="1"/>
+    <col min="10762" max="10762" width="20.28515625" style="59" customWidth="1"/>
+    <col min="10763" max="11008" width="22" style="59"/>
+    <col min="11009" max="11009" width="29.7109375" style="59" customWidth="1"/>
+    <col min="11010" max="11010" width="23.28515625" style="59" customWidth="1"/>
+    <col min="11011" max="11011" width="74.5703125" style="59" customWidth="1"/>
+    <col min="11012" max="11012" width="22.28515625" style="59" customWidth="1"/>
+    <col min="11013" max="11013" width="23.7109375" style="59" customWidth="1"/>
+    <col min="11014" max="11014" width="23.85546875" style="59" customWidth="1"/>
+    <col min="11015" max="11016" width="23.28515625" style="59" customWidth="1"/>
+    <col min="11017" max="11017" width="24.85546875" style="59" customWidth="1"/>
+    <col min="11018" max="11018" width="20.28515625" style="59" customWidth="1"/>
+    <col min="11019" max="11264" width="22" style="59"/>
+    <col min="11265" max="11265" width="29.7109375" style="59" customWidth="1"/>
+    <col min="11266" max="11266" width="23.28515625" style="59" customWidth="1"/>
+    <col min="11267" max="11267" width="74.5703125" style="59" customWidth="1"/>
+    <col min="11268" max="11268" width="22.28515625" style="59" customWidth="1"/>
+    <col min="11269" max="11269" width="23.7109375" style="59" customWidth="1"/>
+    <col min="11270" max="11270" width="23.85546875" style="59" customWidth="1"/>
+    <col min="11271" max="11272" width="23.28515625" style="59" customWidth="1"/>
+    <col min="11273" max="11273" width="24.85546875" style="59" customWidth="1"/>
+    <col min="11274" max="11274" width="20.28515625" style="59" customWidth="1"/>
+    <col min="11275" max="11520" width="22" style="59"/>
+    <col min="11521" max="11521" width="29.7109375" style="59" customWidth="1"/>
+    <col min="11522" max="11522" width="23.28515625" style="59" customWidth="1"/>
+    <col min="11523" max="11523" width="74.5703125" style="59" customWidth="1"/>
+    <col min="11524" max="11524" width="22.28515625" style="59" customWidth="1"/>
+    <col min="11525" max="11525" width="23.7109375" style="59" customWidth="1"/>
+    <col min="11526" max="11526" width="23.85546875" style="59" customWidth="1"/>
+    <col min="11527" max="11528" width="23.28515625" style="59" customWidth="1"/>
+    <col min="11529" max="11529" width="24.85546875" style="59" customWidth="1"/>
+    <col min="11530" max="11530" width="20.28515625" style="59" customWidth="1"/>
+    <col min="11531" max="11776" width="22" style="59"/>
+    <col min="11777" max="11777" width="29.7109375" style="59" customWidth="1"/>
+    <col min="11778" max="11778" width="23.28515625" style="59" customWidth="1"/>
+    <col min="11779" max="11779" width="74.5703125" style="59" customWidth="1"/>
+    <col min="11780" max="11780" width="22.28515625" style="59" customWidth="1"/>
+    <col min="11781" max="11781" width="23.7109375" style="59" customWidth="1"/>
+    <col min="11782" max="11782" width="23.85546875" style="59" customWidth="1"/>
+    <col min="11783" max="11784" width="23.28515625" style="59" customWidth="1"/>
+    <col min="11785" max="11785" width="24.85546875" style="59" customWidth="1"/>
+    <col min="11786" max="11786" width="20.28515625" style="59" customWidth="1"/>
+    <col min="11787" max="12032" width="22" style="59"/>
+    <col min="12033" max="12033" width="29.7109375" style="59" customWidth="1"/>
+    <col min="12034" max="12034" width="23.28515625" style="59" customWidth="1"/>
+    <col min="12035" max="12035" width="74.5703125" style="59" customWidth="1"/>
+    <col min="12036" max="12036" width="22.28515625" style="59" customWidth="1"/>
+    <col min="12037" max="12037" width="23.7109375" style="59" customWidth="1"/>
+    <col min="12038" max="12038" width="23.85546875" style="59" customWidth="1"/>
+    <col min="12039" max="12040" width="23.28515625" style="59" customWidth="1"/>
+    <col min="12041" max="12041" width="24.85546875" style="59" customWidth="1"/>
+    <col min="12042" max="12042" width="20.28515625" style="59" customWidth="1"/>
+    <col min="12043" max="12288" width="22" style="59"/>
+    <col min="12289" max="12289" width="29.7109375" style="59" customWidth="1"/>
+    <col min="12290" max="12290" width="23.28515625" style="59" customWidth="1"/>
+    <col min="12291" max="12291" width="74.5703125" style="59" customWidth="1"/>
+    <col min="12292" max="12292" width="22.28515625" style="59" customWidth="1"/>
+    <col min="12293" max="12293" width="23.7109375" style="59" customWidth="1"/>
+    <col min="12294" max="12294" width="23.85546875" style="59" customWidth="1"/>
+    <col min="12295" max="12296" width="23.28515625" style="59" customWidth="1"/>
+    <col min="12297" max="12297" width="24.85546875" style="59" customWidth="1"/>
+    <col min="12298" max="12298" width="20.28515625" style="59" customWidth="1"/>
+    <col min="12299" max="12544" width="22" style="59"/>
+    <col min="12545" max="12545" width="29.7109375" style="59" customWidth="1"/>
+    <col min="12546" max="12546" width="23.28515625" style="59" customWidth="1"/>
+    <col min="12547" max="12547" width="74.5703125" style="59" customWidth="1"/>
+    <col min="12548" max="12548" width="22.28515625" style="59" customWidth="1"/>
+    <col min="12549" max="12549" width="23.7109375" style="59" customWidth="1"/>
+    <col min="12550" max="12550" width="23.85546875" style="59" customWidth="1"/>
+    <col min="12551" max="12552" width="23.28515625" style="59" customWidth="1"/>
+    <col min="12553" max="12553" width="24.85546875" style="59" customWidth="1"/>
+    <col min="12554" max="12554" width="20.28515625" style="59" customWidth="1"/>
+    <col min="12555" max="12800" width="22" style="59"/>
+    <col min="12801" max="12801" width="29.7109375" style="59" customWidth="1"/>
+    <col min="12802" max="12802" width="23.28515625" style="59" customWidth="1"/>
+    <col min="12803" max="12803" width="74.5703125" style="59" customWidth="1"/>
+    <col min="12804" max="12804" width="22.28515625" style="59" customWidth="1"/>
+    <col min="12805" max="12805" width="23.7109375" style="59" customWidth="1"/>
+    <col min="12806" max="12806" width="23.85546875" style="59" customWidth="1"/>
+    <col min="12807" max="12808" width="23.28515625" style="59" customWidth="1"/>
+    <col min="12809" max="12809" width="24.85546875" style="59" customWidth="1"/>
+    <col min="12810" max="12810" width="20.28515625" style="59" customWidth="1"/>
+    <col min="12811" max="13056" width="22" style="59"/>
+    <col min="13057" max="13057" width="29.7109375" style="59" customWidth="1"/>
+    <col min="13058" max="13058" width="23.28515625" style="59" customWidth="1"/>
+    <col min="13059" max="13059" width="74.5703125" style="59" customWidth="1"/>
+    <col min="13060" max="13060" width="22.28515625" style="59" customWidth="1"/>
+    <col min="13061" max="13061" width="23.7109375" style="59" customWidth="1"/>
+    <col min="13062" max="13062" width="23.85546875" style="59" customWidth="1"/>
+    <col min="13063" max="13064" width="23.28515625" style="59" customWidth="1"/>
+    <col min="13065" max="13065" width="24.85546875" style="59" customWidth="1"/>
+    <col min="13066" max="13066" width="20.28515625" style="59" customWidth="1"/>
+    <col min="13067" max="13312" width="22" style="59"/>
+    <col min="13313" max="13313" width="29.7109375" style="59" customWidth="1"/>
+    <col min="13314" max="13314" width="23.28515625" style="59" customWidth="1"/>
+    <col min="13315" max="13315" width="74.5703125" style="59" customWidth="1"/>
+    <col min="13316" max="13316" width="22.28515625" style="59" customWidth="1"/>
+    <col min="13317" max="13317" width="23.7109375" style="59" customWidth="1"/>
+    <col min="13318" max="13318" width="23.85546875" style="59" customWidth="1"/>
+    <col min="13319" max="13320" width="23.28515625" style="59" customWidth="1"/>
+    <col min="13321" max="13321" width="24.85546875" style="59" customWidth="1"/>
+    <col min="13322" max="13322" width="20.28515625" style="59" customWidth="1"/>
+    <col min="13323" max="13568" width="22" style="59"/>
+    <col min="13569" max="13569" width="29.7109375" style="59" customWidth="1"/>
+    <col min="13570" max="13570" width="23.28515625" style="59" customWidth="1"/>
+    <col min="13571" max="13571" width="74.5703125" style="59" customWidth="1"/>
+    <col min="13572" max="13572" width="22.28515625" style="59" customWidth="1"/>
+    <col min="13573" max="13573" width="23.7109375" style="59" customWidth="1"/>
+    <col min="13574" max="13574" width="23.85546875" style="59" customWidth="1"/>
+    <col min="13575" max="13576" width="23.28515625" style="59" customWidth="1"/>
+    <col min="13577" max="13577" width="24.85546875" style="59" customWidth="1"/>
+    <col min="13578" max="13578" width="20.28515625" style="59" customWidth="1"/>
+    <col min="13579" max="13824" width="22" style="59"/>
+    <col min="13825" max="13825" width="29.7109375" style="59" customWidth="1"/>
+    <col min="13826" max="13826" width="23.28515625" style="59" customWidth="1"/>
+    <col min="13827" max="13827" width="74.5703125" style="59" customWidth="1"/>
+    <col min="13828" max="13828" width="22.28515625" style="59" customWidth="1"/>
+    <col min="13829" max="13829" width="23.7109375" style="59" customWidth="1"/>
+    <col min="13830" max="13830" width="23.85546875" style="59" customWidth="1"/>
+    <col min="13831" max="13832" width="23.28515625" style="59" customWidth="1"/>
+    <col min="13833" max="13833" width="24.85546875" style="59" customWidth="1"/>
+    <col min="13834" max="13834" width="20.28515625" style="59" customWidth="1"/>
+    <col min="13835" max="14080" width="22" style="59"/>
+    <col min="14081" max="14081" width="29.7109375" style="59" customWidth="1"/>
+    <col min="14082" max="14082" width="23.28515625" style="59" customWidth="1"/>
+    <col min="14083" max="14083" width="74.5703125" style="59" customWidth="1"/>
+    <col min="14084" max="14084" width="22.28515625" style="59" customWidth="1"/>
+    <col min="14085" max="14085" width="23.7109375" style="59" customWidth="1"/>
+    <col min="14086" max="14086" width="23.85546875" style="59" customWidth="1"/>
+    <col min="14087" max="14088" width="23.28515625" style="59" customWidth="1"/>
+    <col min="14089" max="14089" width="24.85546875" style="59" customWidth="1"/>
+    <col min="14090" max="14090" width="20.28515625" style="59" customWidth="1"/>
+    <col min="14091" max="14336" width="22" style="59"/>
+    <col min="14337" max="14337" width="29.7109375" style="59" customWidth="1"/>
+    <col min="14338" max="14338" width="23.28515625" style="59" customWidth="1"/>
+    <col min="14339" max="14339" width="74.5703125" style="59" customWidth="1"/>
+    <col min="14340" max="14340" width="22.28515625" style="59" customWidth="1"/>
+    <col min="14341" max="14341" width="23.7109375" style="59" customWidth="1"/>
+    <col min="14342" max="14342" width="23.85546875" style="59" customWidth="1"/>
+    <col min="14343" max="14344" width="23.28515625" style="59" customWidth="1"/>
+    <col min="14345" max="14345" width="24.85546875" style="59" customWidth="1"/>
+    <col min="14346" max="14346" width="20.28515625" style="59" customWidth="1"/>
+    <col min="14347" max="14592" width="22" style="59"/>
+    <col min="14593" max="14593" width="29.7109375" style="59" customWidth="1"/>
+    <col min="14594" max="14594" width="23.28515625" style="59" customWidth="1"/>
+    <col min="14595" max="14595" width="74.5703125" style="59" customWidth="1"/>
+    <col min="14596" max="14596" width="22.28515625" style="59" customWidth="1"/>
+    <col min="14597" max="14597" width="23.7109375" style="59" customWidth="1"/>
+    <col min="14598" max="14598" width="23.85546875" style="59" customWidth="1"/>
+    <col min="14599" max="14600" width="23.28515625" style="59" customWidth="1"/>
+    <col min="14601" max="14601" width="24.85546875" style="59" customWidth="1"/>
+    <col min="14602" max="14602" width="20.28515625" style="59" customWidth="1"/>
+    <col min="14603" max="14848" width="22" style="59"/>
+    <col min="14849" max="14849" width="29.7109375" style="59" customWidth="1"/>
+    <col min="14850" max="14850" width="23.28515625" style="59" customWidth="1"/>
+    <col min="14851" max="14851" width="74.5703125" style="59" customWidth="1"/>
+    <col min="14852" max="14852" width="22.28515625" style="59" customWidth="1"/>
+    <col min="14853" max="14853" width="23.7109375" style="59" customWidth="1"/>
+    <col min="14854" max="14854" width="23.85546875" style="59" customWidth="1"/>
+    <col min="14855" max="14856" width="23.28515625" style="59" customWidth="1"/>
+    <col min="14857" max="14857" width="24.85546875" style="59" customWidth="1"/>
+    <col min="14858" max="14858" width="20.28515625" style="59" customWidth="1"/>
+    <col min="14859" max="15104" width="22" style="59"/>
+    <col min="15105" max="15105" width="29.7109375" style="59" customWidth="1"/>
+    <col min="15106" max="15106" width="23.28515625" style="59" customWidth="1"/>
+    <col min="15107" max="15107" width="74.5703125" style="59" customWidth="1"/>
+    <col min="15108" max="15108" width="22.28515625" style="59" customWidth="1"/>
+    <col min="15109" max="15109" width="23.7109375" style="59" customWidth="1"/>
+    <col min="15110" max="15110" width="23.85546875" style="59" customWidth="1"/>
+    <col min="15111" max="15112" width="23.28515625" style="59" customWidth="1"/>
+    <col min="15113" max="15113" width="24.85546875" style="59" customWidth="1"/>
+    <col min="15114" max="15114" width="20.28515625" style="59" customWidth="1"/>
+    <col min="15115" max="15360" width="22" style="59"/>
+    <col min="15361" max="15361" width="29.7109375" style="59" customWidth="1"/>
+    <col min="15362" max="15362" width="23.28515625" style="59" customWidth="1"/>
+    <col min="15363" max="15363" width="74.5703125" style="59" customWidth="1"/>
+    <col min="15364" max="15364" width="22.28515625" style="59" customWidth="1"/>
+    <col min="15365" max="15365" width="23.7109375" style="59" customWidth="1"/>
+    <col min="15366" max="15366" width="23.85546875" style="59" customWidth="1"/>
+    <col min="15367" max="15368" width="23.28515625" style="59" customWidth="1"/>
+    <col min="15369" max="15369" width="24.85546875" style="59" customWidth="1"/>
+    <col min="15370" max="15370" width="20.28515625" style="59" customWidth="1"/>
+    <col min="15371" max="15616" width="22" style="59"/>
+    <col min="15617" max="15617" width="29.7109375" style="59" customWidth="1"/>
+    <col min="15618" max="15618" width="23.28515625" style="59" customWidth="1"/>
+    <col min="15619" max="15619" width="74.5703125" style="59" customWidth="1"/>
+    <col min="15620" max="15620" width="22.28515625" style="59" customWidth="1"/>
+    <col min="15621" max="15621" width="23.7109375" style="59" customWidth="1"/>
+    <col min="15622" max="15622" width="23.85546875" style="59" customWidth="1"/>
+    <col min="15623" max="15624" width="23.28515625" style="59" customWidth="1"/>
+    <col min="15625" max="15625" width="24.85546875" style="59" customWidth="1"/>
+    <col min="15626" max="15626" width="20.28515625" style="59" customWidth="1"/>
+    <col min="15627" max="15872" width="22" style="59"/>
+    <col min="15873" max="15873" width="29.7109375" style="59" customWidth="1"/>
+    <col min="15874" max="15874" width="23.28515625" style="59" customWidth="1"/>
+    <col min="15875" max="15875" width="74.5703125" style="59" customWidth="1"/>
+    <col min="15876" max="15876" width="22.28515625" style="59" customWidth="1"/>
+    <col min="15877" max="15877" width="23.7109375" style="59" customWidth="1"/>
+    <col min="15878" max="15878" width="23.85546875" style="59" customWidth="1"/>
+    <col min="15879" max="15880" width="23.28515625" style="59" customWidth="1"/>
+    <col min="15881" max="15881" width="24.85546875" style="59" customWidth="1"/>
+    <col min="15882" max="15882" width="20.28515625" style="59" customWidth="1"/>
+    <col min="15883" max="16128" width="22" style="59"/>
+    <col min="16129" max="16129" width="29.7109375" style="59" customWidth="1"/>
+    <col min="16130" max="16130" width="23.28515625" style="59" customWidth="1"/>
+    <col min="16131" max="16131" width="74.5703125" style="59" customWidth="1"/>
+    <col min="16132" max="16132" width="22.28515625" style="59" customWidth="1"/>
+    <col min="16133" max="16133" width="23.7109375" style="59" customWidth="1"/>
+    <col min="16134" max="16134" width="23.85546875" style="59" customWidth="1"/>
+    <col min="16135" max="16136" width="23.28515625" style="59" customWidth="1"/>
+    <col min="16137" max="16137" width="24.85546875" style="59" customWidth="1"/>
+    <col min="16138" max="16138" width="20.28515625" style="59" customWidth="1"/>
+    <col min="16139" max="16384" width="22" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:242" s="67" customFormat="1" ht="22.5">
+      <c r="A1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="61"/>
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="61"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="61"/>
+      <c r="AF1" s="61"/>
+      <c r="AG1" s="61"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="61"/>
+      <c r="AJ1" s="61"/>
+      <c r="AK1" s="61"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="61"/>
+      <c r="AN1" s="61"/>
+      <c r="AO1" s="61"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="61"/>
+      <c r="AR1" s="61"/>
+      <c r="AS1" s="61"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="61"/>
+      <c r="AV1" s="61"/>
+      <c r="AW1" s="61"/>
+      <c r="AX1" s="61"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="61"/>
+      <c r="BA1" s="61"/>
+      <c r="BB1" s="61"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="61"/>
+      <c r="BE1" s="61"/>
+      <c r="BF1" s="61"/>
+      <c r="BG1" s="61"/>
+      <c r="BH1" s="61"/>
+      <c r="BI1" s="61"/>
+      <c r="BJ1" s="61"/>
+      <c r="BK1" s="61"/>
+      <c r="BL1" s="61"/>
+      <c r="BM1" s="61"/>
+      <c r="BN1" s="61"/>
+      <c r="BO1" s="61"/>
+      <c r="BP1" s="61"/>
+      <c r="BQ1" s="61"/>
+      <c r="BR1" s="61"/>
+      <c r="BS1" s="61"/>
+      <c r="BT1" s="61"/>
+      <c r="BU1" s="61"/>
+      <c r="BV1" s="61"/>
+      <c r="BW1" s="61"/>
+      <c r="BX1" s="61"/>
+      <c r="BY1" s="61"/>
+      <c r="BZ1" s="61"/>
+      <c r="CA1" s="61"/>
+      <c r="CB1" s="61"/>
+      <c r="CC1" s="61"/>
+      <c r="CD1" s="61"/>
+      <c r="CE1" s="61"/>
+      <c r="CF1" s="61"/>
+      <c r="CG1" s="61"/>
+      <c r="CH1" s="61"/>
+      <c r="CI1" s="61"/>
+      <c r="CJ1" s="61"/>
+      <c r="CK1" s="61"/>
+      <c r="CL1" s="61"/>
+      <c r="CM1" s="61"/>
+      <c r="CN1" s="61"/>
+      <c r="CO1" s="61"/>
+      <c r="CP1" s="61"/>
+      <c r="CQ1" s="61"/>
+      <c r="CR1" s="61"/>
+      <c r="CS1" s="61"/>
+      <c r="CT1" s="61"/>
+      <c r="CU1" s="61"/>
+      <c r="CV1" s="61"/>
+      <c r="CW1" s="61"/>
+      <c r="CX1" s="61"/>
+      <c r="CY1" s="61"/>
+      <c r="CZ1" s="61"/>
+      <c r="DA1" s="61"/>
+      <c r="DB1" s="61"/>
+      <c r="DC1" s="61"/>
+      <c r="DD1" s="61"/>
+      <c r="DE1" s="61"/>
+      <c r="DF1" s="61"/>
+      <c r="DG1" s="61"/>
+      <c r="DH1" s="61"/>
+      <c r="DI1" s="61"/>
+      <c r="DJ1" s="61"/>
+      <c r="DK1" s="61"/>
+      <c r="DL1" s="61"/>
+      <c r="DM1" s="61"/>
+      <c r="DN1" s="61"/>
+      <c r="DO1" s="61"/>
+      <c r="DP1" s="61"/>
+      <c r="DQ1" s="61"/>
+      <c r="DR1" s="61"/>
+      <c r="DS1" s="61"/>
+      <c r="DT1" s="61"/>
+      <c r="DU1" s="61"/>
+      <c r="DV1" s="61"/>
+      <c r="DW1" s="61"/>
+      <c r="DX1" s="61"/>
+      <c r="DY1" s="61"/>
+      <c r="DZ1" s="61"/>
+      <c r="EA1" s="61"/>
+      <c r="EB1" s="61"/>
+      <c r="EC1" s="61"/>
+      <c r="ED1" s="61"/>
+      <c r="EE1" s="61"/>
+      <c r="EF1" s="61"/>
+      <c r="EG1" s="61"/>
+      <c r="EH1" s="61"/>
+      <c r="EI1" s="61"/>
+      <c r="EJ1" s="61"/>
+      <c r="EK1" s="61"/>
+      <c r="EL1" s="61"/>
+      <c r="EM1" s="61"/>
+      <c r="EN1" s="61"/>
+      <c r="EO1" s="61"/>
+      <c r="EP1" s="61"/>
+      <c r="EQ1" s="61"/>
+      <c r="ER1" s="61"/>
+      <c r="ES1" s="61"/>
+      <c r="ET1" s="61"/>
+      <c r="EU1" s="61"/>
+      <c r="EV1" s="61"/>
+      <c r="EW1" s="61"/>
+      <c r="EX1" s="61"/>
+      <c r="EY1" s="61"/>
+      <c r="EZ1" s="61"/>
+      <c r="FA1" s="61"/>
+      <c r="FB1" s="61"/>
+      <c r="FC1" s="61"/>
+      <c r="FD1" s="61"/>
+      <c r="FE1" s="61"/>
+      <c r="FF1" s="61"/>
+      <c r="FG1" s="61"/>
+      <c r="FH1" s="61"/>
+      <c r="FI1" s="61"/>
+      <c r="FJ1" s="61"/>
+      <c r="FK1" s="61"/>
+      <c r="FL1" s="61"/>
+      <c r="FM1" s="61"/>
+      <c r="FN1" s="61"/>
+      <c r="FO1" s="61"/>
+      <c r="FP1" s="61"/>
+      <c r="FQ1" s="61"/>
+      <c r="FR1" s="61"/>
+      <c r="FS1" s="61"/>
+      <c r="FT1" s="61"/>
+      <c r="FU1" s="61"/>
+      <c r="FV1" s="61"/>
+      <c r="FW1" s="61"/>
+      <c r="FX1" s="61"/>
+      <c r="FY1" s="61"/>
+      <c r="FZ1" s="61"/>
+      <c r="GA1" s="61"/>
+      <c r="GB1" s="61"/>
+      <c r="GC1" s="61"/>
+      <c r="GD1" s="61"/>
+      <c r="GE1" s="61"/>
+      <c r="GF1" s="61"/>
+      <c r="GG1" s="61"/>
+      <c r="GH1" s="61"/>
+      <c r="GI1" s="61"/>
+      <c r="GJ1" s="61"/>
+      <c r="GK1" s="61"/>
+      <c r="GL1" s="61"/>
+      <c r="GM1" s="61"/>
+      <c r="GN1" s="61"/>
+      <c r="GO1" s="61"/>
+      <c r="GP1" s="61"/>
+      <c r="GQ1" s="61"/>
+      <c r="GR1" s="61"/>
+      <c r="GS1" s="61"/>
+      <c r="GT1" s="61"/>
+      <c r="GU1" s="61"/>
+      <c r="GV1" s="61"/>
+      <c r="GW1" s="61"/>
+      <c r="GX1" s="61"/>
+      <c r="GY1" s="61"/>
+      <c r="GZ1" s="61"/>
+      <c r="HA1" s="61"/>
+      <c r="HB1" s="61"/>
+      <c r="HC1" s="61"/>
+      <c r="HD1" s="61"/>
+      <c r="HE1" s="61"/>
+      <c r="HF1" s="61"/>
+      <c r="HG1" s="61"/>
+      <c r="HH1" s="61"/>
+      <c r="HI1" s="61"/>
+      <c r="HJ1" s="61"/>
+      <c r="HK1" s="61"/>
+      <c r="HL1" s="61"/>
+      <c r="HM1" s="61"/>
+      <c r="HN1" s="61"/>
+      <c r="HO1" s="61"/>
+      <c r="HP1" s="61"/>
+      <c r="HQ1" s="61"/>
+      <c r="HR1" s="61"/>
+      <c r="HS1" s="61"/>
+      <c r="HT1" s="61"/>
+      <c r="HU1" s="61"/>
+      <c r="HV1" s="61"/>
+      <c r="HW1" s="61"/>
+      <c r="HX1" s="61"/>
+      <c r="HY1" s="61"/>
+      <c r="HZ1" s="61"/>
+      <c r="IA1" s="61"/>
+      <c r="IB1" s="61"/>
+      <c r="IC1" s="61"/>
+      <c r="ID1" s="61"/>
+      <c r="IE1" s="61"/>
+      <c r="IF1" s="61"/>
+      <c r="IG1" s="61"/>
+      <c r="IH1" s="61"/>
+    </row>
+    <row r="2" spans="1:242" s="69" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A2" s="63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A3" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+    </row>
+    <row r="4" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A4" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A5" s="74"/>
+      <c r="B5" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+    </row>
+    <row r="6" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A6" s="75"/>
+      <c r="B6" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A7" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+    </row>
+    <row r="8" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+    </row>
+    <row r="9" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A9" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+    </row>
+    <row r="10" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A10" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+    </row>
+    <row r="11" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A11" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+    </row>
+    <row r="12" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A12" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="77" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+    </row>
+    <row r="13" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A13" s="74"/>
+      <c r="B13" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+    </row>
+    <row r="14" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A14" s="75"/>
+      <c r="B14" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+    </row>
+    <row r="15" spans="1:242" s="63" customFormat="1" ht="66">
+      <c r="A15" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+    </row>
+    <row r="16" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+    </row>
+    <row r="17" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+    </row>
+    <row r="18" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+    </row>
+    <row r="19" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+    </row>
+    <row r="20" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+    </row>
+    <row r="21" spans="1:242" s="67" customFormat="1" ht="22.5">
+      <c r="A21" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="61"/>
+      <c r="AG21" s="61"/>
+      <c r="AH21" s="61"/>
+      <c r="AI21" s="61"/>
+      <c r="AJ21" s="61"/>
+      <c r="AK21" s="61"/>
+      <c r="AL21" s="61"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
+      <c r="AO21" s="61"/>
+      <c r="AP21" s="61"/>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="61"/>
+      <c r="AT21" s="61"/>
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="61"/>
+      <c r="BB21" s="61"/>
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="61"/>
+      <c r="BH21" s="61"/>
+      <c r="BI21" s="61"/>
+      <c r="BJ21" s="61"/>
+      <c r="BK21" s="61"/>
+      <c r="BL21" s="61"/>
+      <c r="BM21" s="61"/>
+      <c r="BN21" s="61"/>
+      <c r="BO21" s="61"/>
+      <c r="BP21" s="61"/>
+      <c r="BQ21" s="61"/>
+      <c r="BR21" s="61"/>
+      <c r="BS21" s="61"/>
+      <c r="BT21" s="61"/>
+      <c r="BU21" s="61"/>
+      <c r="BV21" s="61"/>
+      <c r="BW21" s="61"/>
+      <c r="BX21" s="61"/>
+      <c r="BY21" s="61"/>
+      <c r="BZ21" s="61"/>
+      <c r="CA21" s="61"/>
+      <c r="CB21" s="61"/>
+      <c r="CC21" s="61"/>
+      <c r="CD21" s="61"/>
+      <c r="CE21" s="61"/>
+      <c r="CF21" s="61"/>
+      <c r="CG21" s="61"/>
+      <c r="CH21" s="61"/>
+      <c r="CI21" s="61"/>
+      <c r="CJ21" s="61"/>
+      <c r="CK21" s="61"/>
+      <c r="CL21" s="61"/>
+      <c r="CM21" s="61"/>
+      <c r="CN21" s="61"/>
+      <c r="CO21" s="61"/>
+      <c r="CP21" s="61"/>
+      <c r="CQ21" s="61"/>
+      <c r="CR21" s="61"/>
+      <c r="CS21" s="61"/>
+      <c r="CT21" s="61"/>
+      <c r="CU21" s="61"/>
+      <c r="CV21" s="61"/>
+      <c r="CW21" s="61"/>
+      <c r="CX21" s="61"/>
+      <c r="CY21" s="61"/>
+      <c r="CZ21" s="61"/>
+      <c r="DA21" s="61"/>
+      <c r="DB21" s="61"/>
+      <c r="DC21" s="61"/>
+      <c r="DD21" s="61"/>
+      <c r="DE21" s="61"/>
+      <c r="DF21" s="61"/>
+      <c r="DG21" s="61"/>
+      <c r="DH21" s="61"/>
+      <c r="DI21" s="61"/>
+      <c r="DJ21" s="61"/>
+      <c r="DK21" s="61"/>
+      <c r="DL21" s="61"/>
+      <c r="DM21" s="61"/>
+      <c r="DN21" s="61"/>
+      <c r="DO21" s="61"/>
+      <c r="DP21" s="61"/>
+      <c r="DQ21" s="61"/>
+      <c r="DR21" s="61"/>
+      <c r="DS21" s="61"/>
+      <c r="DT21" s="61"/>
+      <c r="DU21" s="61"/>
+      <c r="DV21" s="61"/>
+      <c r="DW21" s="61"/>
+      <c r="DX21" s="61"/>
+      <c r="DY21" s="61"/>
+      <c r="DZ21" s="61"/>
+      <c r="EA21" s="61"/>
+      <c r="EB21" s="61"/>
+      <c r="EC21" s="61"/>
+      <c r="ED21" s="61"/>
+      <c r="EE21" s="61"/>
+      <c r="EF21" s="61"/>
+      <c r="EG21" s="61"/>
+      <c r="EH21" s="61"/>
+      <c r="EI21" s="61"/>
+      <c r="EJ21" s="61"/>
+      <c r="EK21" s="61"/>
+      <c r="EL21" s="61"/>
+      <c r="EM21" s="61"/>
+      <c r="EN21" s="61"/>
+      <c r="EO21" s="61"/>
+      <c r="EP21" s="61"/>
+      <c r="EQ21" s="61"/>
+      <c r="ER21" s="61"/>
+      <c r="ES21" s="61"/>
+      <c r="ET21" s="61"/>
+      <c r="EU21" s="61"/>
+      <c r="EV21" s="61"/>
+      <c r="EW21" s="61"/>
+      <c r="EX21" s="61"/>
+      <c r="EY21" s="61"/>
+      <c r="EZ21" s="61"/>
+      <c r="FA21" s="61"/>
+      <c r="FB21" s="61"/>
+      <c r="FC21" s="61"/>
+      <c r="FD21" s="61"/>
+      <c r="FE21" s="61"/>
+      <c r="FF21" s="61"/>
+      <c r="FG21" s="61"/>
+      <c r="FH21" s="61"/>
+      <c r="FI21" s="61"/>
+      <c r="FJ21" s="61"/>
+      <c r="FK21" s="61"/>
+      <c r="FL21" s="61"/>
+      <c r="FM21" s="61"/>
+      <c r="FN21" s="61"/>
+      <c r="FO21" s="61"/>
+      <c r="FP21" s="61"/>
+      <c r="FQ21" s="61"/>
+      <c r="FR21" s="61"/>
+      <c r="FS21" s="61"/>
+      <c r="FT21" s="61"/>
+      <c r="FU21" s="61"/>
+      <c r="FV21" s="61"/>
+      <c r="FW21" s="61"/>
+      <c r="FX21" s="61"/>
+      <c r="FY21" s="61"/>
+      <c r="FZ21" s="61"/>
+      <c r="GA21" s="61"/>
+      <c r="GB21" s="61"/>
+      <c r="GC21" s="61"/>
+      <c r="GD21" s="61"/>
+      <c r="GE21" s="61"/>
+      <c r="GF21" s="61"/>
+      <c r="GG21" s="61"/>
+      <c r="GH21" s="61"/>
+      <c r="GI21" s="61"/>
+      <c r="GJ21" s="61"/>
+      <c r="GK21" s="61"/>
+      <c r="GL21" s="61"/>
+      <c r="GM21" s="61"/>
+      <c r="GN21" s="61"/>
+      <c r="GO21" s="61"/>
+      <c r="GP21" s="61"/>
+      <c r="GQ21" s="61"/>
+      <c r="GR21" s="61"/>
+      <c r="GS21" s="61"/>
+      <c r="GT21" s="61"/>
+      <c r="GU21" s="61"/>
+      <c r="GV21" s="61"/>
+      <c r="GW21" s="61"/>
+      <c r="GX21" s="61"/>
+      <c r="GY21" s="61"/>
+      <c r="GZ21" s="61"/>
+      <c r="HA21" s="61"/>
+      <c r="HB21" s="61"/>
+      <c r="HC21" s="61"/>
+      <c r="HD21" s="61"/>
+      <c r="HE21" s="61"/>
+      <c r="HF21" s="61"/>
+      <c r="HG21" s="61"/>
+      <c r="HH21" s="61"/>
+      <c r="HI21" s="61"/>
+      <c r="HJ21" s="61"/>
+      <c r="HK21" s="61"/>
+      <c r="HL21" s="61"/>
+      <c r="HM21" s="61"/>
+      <c r="HN21" s="61"/>
+      <c r="HO21" s="61"/>
+      <c r="HP21" s="61"/>
+      <c r="HQ21" s="61"/>
+      <c r="HR21" s="61"/>
+      <c r="HS21" s="61"/>
+      <c r="HT21" s="61"/>
+      <c r="HU21" s="61"/>
+      <c r="HV21" s="61"/>
+      <c r="HW21" s="61"/>
+      <c r="HX21" s="61"/>
+      <c r="HY21" s="61"/>
+      <c r="HZ21" s="61"/>
+      <c r="IA21" s="61"/>
+      <c r="IB21" s="61"/>
+      <c r="IC21" s="61"/>
+      <c r="ID21" s="61"/>
+      <c r="IE21" s="61"/>
+      <c r="IF21" s="61"/>
+      <c r="IG21" s="61"/>
+      <c r="IH21" s="61"/>
+    </row>
+    <row r="22" spans="1:242" s="69" customFormat="1" ht="19.5">
+      <c r="A22" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
+      <c r="AB22" s="66"/>
+      <c r="AC22" s="66"/>
+      <c r="AD22" s="66"/>
+      <c r="AE22" s="66"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
+      <c r="AM22" s="66"/>
+      <c r="AN22" s="66"/>
+      <c r="AO22" s="66"/>
+      <c r="AP22" s="66"/>
+      <c r="AQ22" s="66"/>
+      <c r="AR22" s="66"/>
+      <c r="AS22" s="66"/>
+      <c r="AT22" s="66"/>
+      <c r="AU22" s="66"/>
+      <c r="AV22" s="66"/>
+      <c r="AW22" s="66"/>
+      <c r="AX22" s="66"/>
+      <c r="AY22" s="66"/>
+      <c r="AZ22" s="66"/>
+      <c r="BA22" s="66"/>
+      <c r="BB22" s="66"/>
+      <c r="BC22" s="66"/>
+      <c r="BD22" s="66"/>
+      <c r="BE22" s="66"/>
+      <c r="BF22" s="66"/>
+      <c r="BG22" s="66"/>
+      <c r="BH22" s="66"/>
+      <c r="BI22" s="66"/>
+      <c r="BJ22" s="66"/>
+      <c r="BK22" s="66"/>
+      <c r="BL22" s="66"/>
+      <c r="BM22" s="66"/>
+      <c r="BN22" s="66"/>
+      <c r="BO22" s="66"/>
+      <c r="BP22" s="66"/>
+      <c r="BQ22" s="66"/>
+      <c r="BR22" s="66"/>
+      <c r="BS22" s="66"/>
+      <c r="BT22" s="66"/>
+      <c r="BU22" s="66"/>
+      <c r="BV22" s="66"/>
+      <c r="BW22" s="66"/>
+      <c r="BX22" s="66"/>
+      <c r="BY22" s="66"/>
+      <c r="BZ22" s="66"/>
+      <c r="CA22" s="66"/>
+      <c r="CB22" s="66"/>
+      <c r="CC22" s="66"/>
+      <c r="CD22" s="66"/>
+      <c r="CE22" s="66"/>
+      <c r="CF22" s="66"/>
+      <c r="CG22" s="66"/>
+      <c r="CH22" s="66"/>
+      <c r="CI22" s="66"/>
+      <c r="CJ22" s="66"/>
+      <c r="CK22" s="66"/>
+      <c r="CL22" s="66"/>
+      <c r="CM22" s="66"/>
+      <c r="CN22" s="66"/>
+      <c r="CO22" s="66"/>
+      <c r="CP22" s="66"/>
+      <c r="CQ22" s="66"/>
+      <c r="CR22" s="66"/>
+      <c r="CS22" s="66"/>
+      <c r="CT22" s="66"/>
+      <c r="CU22" s="66"/>
+      <c r="CV22" s="66"/>
+      <c r="CW22" s="66"/>
+      <c r="CX22" s="66"/>
+      <c r="CY22" s="66"/>
+      <c r="CZ22" s="66"/>
+      <c r="DA22" s="66"/>
+      <c r="DB22" s="66"/>
+      <c r="DC22" s="66"/>
+      <c r="DD22" s="66"/>
+      <c r="DE22" s="66"/>
+      <c r="DF22" s="66"/>
+      <c r="DG22" s="66"/>
+      <c r="DH22" s="66"/>
+      <c r="DI22" s="66"/>
+      <c r="DJ22" s="66"/>
+      <c r="DK22" s="66"/>
+      <c r="DL22" s="66"/>
+      <c r="DM22" s="66"/>
+      <c r="DN22" s="66"/>
+      <c r="DO22" s="66"/>
+      <c r="DP22" s="66"/>
+      <c r="DQ22" s="66"/>
+      <c r="DR22" s="66"/>
+      <c r="DS22" s="66"/>
+      <c r="DT22" s="66"/>
+      <c r="DU22" s="66"/>
+      <c r="DV22" s="66"/>
+      <c r="DW22" s="66"/>
+      <c r="DX22" s="66"/>
+      <c r="DY22" s="66"/>
+      <c r="DZ22" s="66"/>
+      <c r="EA22" s="66"/>
+      <c r="EB22" s="66"/>
+      <c r="EC22" s="66"/>
+      <c r="ED22" s="66"/>
+      <c r="EE22" s="66"/>
+      <c r="EF22" s="66"/>
+      <c r="EG22" s="66"/>
+      <c r="EH22" s="66"/>
+      <c r="EI22" s="66"/>
+      <c r="EJ22" s="66"/>
+      <c r="EK22" s="66"/>
+      <c r="EL22" s="66"/>
+      <c r="EM22" s="66"/>
+      <c r="EN22" s="66"/>
+      <c r="EO22" s="66"/>
+      <c r="EP22" s="66"/>
+      <c r="EQ22" s="66"/>
+      <c r="ER22" s="66"/>
+      <c r="ES22" s="66"/>
+      <c r="ET22" s="66"/>
+      <c r="EU22" s="66"/>
+      <c r="EV22" s="66"/>
+      <c r="EW22" s="66"/>
+      <c r="EX22" s="66"/>
+      <c r="EY22" s="66"/>
+      <c r="EZ22" s="66"/>
+      <c r="FA22" s="66"/>
+      <c r="FB22" s="66"/>
+      <c r="FC22" s="66"/>
+      <c r="FD22" s="66"/>
+      <c r="FE22" s="66"/>
+      <c r="FF22" s="66"/>
+      <c r="FG22" s="66"/>
+      <c r="FH22" s="66"/>
+      <c r="FI22" s="66"/>
+      <c r="FJ22" s="66"/>
+      <c r="FK22" s="66"/>
+      <c r="FL22" s="66"/>
+      <c r="FM22" s="66"/>
+      <c r="FN22" s="66"/>
+      <c r="FO22" s="66"/>
+      <c r="FP22" s="66"/>
+      <c r="FQ22" s="66"/>
+      <c r="FR22" s="66"/>
+      <c r="FS22" s="66"/>
+      <c r="FT22" s="66"/>
+      <c r="FU22" s="66"/>
+      <c r="FV22" s="66"/>
+      <c r="FW22" s="66"/>
+      <c r="FX22" s="66"/>
+      <c r="FY22" s="66"/>
+      <c r="FZ22" s="66"/>
+      <c r="GA22" s="66"/>
+      <c r="GB22" s="66"/>
+      <c r="GC22" s="66"/>
+      <c r="GD22" s="66"/>
+      <c r="GE22" s="66"/>
+      <c r="GF22" s="66"/>
+      <c r="GG22" s="66"/>
+      <c r="GH22" s="66"/>
+      <c r="GI22" s="66"/>
+      <c r="GJ22" s="66"/>
+      <c r="GK22" s="66"/>
+      <c r="GL22" s="66"/>
+      <c r="GM22" s="66"/>
+      <c r="GN22" s="66"/>
+      <c r="GO22" s="66"/>
+      <c r="GP22" s="66"/>
+      <c r="GQ22" s="66"/>
+      <c r="GR22" s="66"/>
+      <c r="GS22" s="66"/>
+      <c r="GT22" s="66"/>
+      <c r="GU22" s="66"/>
+      <c r="GV22" s="66"/>
+      <c r="GW22" s="66"/>
+      <c r="GX22" s="66"/>
+      <c r="GY22" s="66"/>
+      <c r="GZ22" s="66"/>
+      <c r="HA22" s="66"/>
+      <c r="HB22" s="66"/>
+      <c r="HC22" s="66"/>
+      <c r="HD22" s="66"/>
+      <c r="HE22" s="66"/>
+      <c r="HF22" s="66"/>
+      <c r="HG22" s="66"/>
+      <c r="HH22" s="66"/>
+      <c r="HI22" s="66"/>
+      <c r="HJ22" s="66"/>
+      <c r="HK22" s="66"/>
+      <c r="HL22" s="66"/>
+      <c r="HM22" s="66"/>
+      <c r="HN22" s="66"/>
+      <c r="HO22" s="66"/>
+      <c r="HP22" s="66"/>
+      <c r="HQ22" s="66"/>
+      <c r="HR22" s="66"/>
+      <c r="HS22" s="66"/>
+      <c r="HT22" s="66"/>
+      <c r="HU22" s="66"/>
+      <c r="HV22" s="66"/>
+      <c r="HW22" s="66"/>
+      <c r="HX22" s="66"/>
+      <c r="HY22" s="66"/>
+      <c r="HZ22" s="66"/>
+      <c r="IA22" s="66"/>
+      <c r="IB22" s="66"/>
+      <c r="IC22" s="66"/>
+      <c r="ID22" s="66"/>
+      <c r="IE22" s="66"/>
+      <c r="IF22" s="66"/>
+      <c r="IG22" s="66"/>
+      <c r="IH22" s="66"/>
+    </row>
+    <row r="23" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A23" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+    </row>
+    <row r="24" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A24" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+    </row>
+    <row r="25" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A25" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+    </row>
+    <row r="26" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A26" s="74"/>
+      <c r="B26" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+    </row>
+    <row r="27" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A27" s="75"/>
+      <c r="B27" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+    </row>
+    <row r="28" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A28" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="81"/>
+    </row>
+    <row r="29" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+    </row>
+    <row r="30" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A30" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+    </row>
+    <row r="31" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A31" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+    </row>
+    <row r="32" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A32" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+    </row>
+    <row r="33" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A33" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A34" s="74"/>
+      <c r="B34" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="78" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:242" s="69" customFormat="1" ht="15">
+      <c r="A35" s="75"/>
+      <c r="B35" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="73" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="71"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="63"/>
+      <c r="AR35" s="63"/>
+      <c r="AS35" s="63"/>
+      <c r="AT35" s="63"/>
+      <c r="AU35" s="63"/>
+      <c r="AV35" s="63"/>
+      <c r="AW35" s="63"/>
+      <c r="AX35" s="63"/>
+      <c r="AY35" s="63"/>
+      <c r="AZ35" s="63"/>
+      <c r="BA35" s="63"/>
+      <c r="BB35" s="63"/>
+      <c r="BC35" s="63"/>
+      <c r="BD35" s="63"/>
+      <c r="BE35" s="63"/>
+      <c r="BF35" s="63"/>
+      <c r="BG35" s="63"/>
+      <c r="BH35" s="63"/>
+      <c r="BI35" s="63"/>
+      <c r="BJ35" s="63"/>
+      <c r="BK35" s="63"/>
+      <c r="BL35" s="63"/>
+      <c r="BM35" s="63"/>
+      <c r="BN35" s="63"/>
+      <c r="BO35" s="63"/>
+      <c r="BP35" s="63"/>
+      <c r="BQ35" s="63"/>
+      <c r="BR35" s="63"/>
+      <c r="BS35" s="63"/>
+      <c r="BT35" s="63"/>
+      <c r="BU35" s="63"/>
+      <c r="BV35" s="63"/>
+      <c r="BW35" s="63"/>
+      <c r="BX35" s="63"/>
+      <c r="BY35" s="63"/>
+      <c r="BZ35" s="63"/>
+      <c r="CA35" s="63"/>
+      <c r="CB35" s="63"/>
+      <c r="CC35" s="63"/>
+      <c r="CD35" s="63"/>
+      <c r="CE35" s="63"/>
+      <c r="CF35" s="63"/>
+      <c r="CG35" s="63"/>
+      <c r="CH35" s="63"/>
+      <c r="CI35" s="63"/>
+      <c r="CJ35" s="63"/>
+      <c r="CK35" s="63"/>
+      <c r="CL35" s="63"/>
+      <c r="CM35" s="63"/>
+      <c r="CN35" s="63"/>
+      <c r="CO35" s="63"/>
+      <c r="CP35" s="63"/>
+      <c r="CQ35" s="63"/>
+      <c r="CR35" s="63"/>
+      <c r="CS35" s="63"/>
+      <c r="CT35" s="63"/>
+      <c r="CU35" s="63"/>
+      <c r="CV35" s="63"/>
+      <c r="CW35" s="63"/>
+      <c r="CX35" s="63"/>
+      <c r="CY35" s="63"/>
+      <c r="CZ35" s="63"/>
+      <c r="DA35" s="63"/>
+      <c r="DB35" s="63"/>
+      <c r="DC35" s="63"/>
+      <c r="DD35" s="63"/>
+      <c r="DE35" s="63"/>
+      <c r="DF35" s="63"/>
+      <c r="DG35" s="63"/>
+      <c r="DH35" s="63"/>
+      <c r="DI35" s="63"/>
+      <c r="DJ35" s="63"/>
+      <c r="DK35" s="63"/>
+      <c r="DL35" s="63"/>
+      <c r="DM35" s="63"/>
+      <c r="DN35" s="63"/>
+      <c r="DO35" s="63"/>
+      <c r="DP35" s="63"/>
+      <c r="DQ35" s="63"/>
+      <c r="DR35" s="63"/>
+      <c r="DS35" s="63"/>
+      <c r="DT35" s="63"/>
+      <c r="DU35" s="63"/>
+      <c r="DV35" s="63"/>
+      <c r="DW35" s="63"/>
+      <c r="DX35" s="63"/>
+      <c r="DY35" s="63"/>
+      <c r="DZ35" s="63"/>
+      <c r="EA35" s="63"/>
+      <c r="EB35" s="63"/>
+      <c r="EC35" s="63"/>
+      <c r="ED35" s="63"/>
+      <c r="EE35" s="63"/>
+      <c r="EF35" s="63"/>
+      <c r="EG35" s="63"/>
+      <c r="EH35" s="63"/>
+      <c r="EI35" s="63"/>
+      <c r="EJ35" s="63"/>
+      <c r="EK35" s="63"/>
+      <c r="EL35" s="63"/>
+      <c r="EM35" s="63"/>
+      <c r="EN35" s="63"/>
+      <c r="EO35" s="63"/>
+      <c r="EP35" s="63"/>
+      <c r="EQ35" s="63"/>
+      <c r="ER35" s="63"/>
+      <c r="ES35" s="63"/>
+      <c r="ET35" s="63"/>
+      <c r="EU35" s="63"/>
+      <c r="EV35" s="63"/>
+      <c r="EW35" s="63"/>
+      <c r="EX35" s="63"/>
+      <c r="EY35" s="63"/>
+      <c r="EZ35" s="63"/>
+      <c r="FA35" s="63"/>
+      <c r="FB35" s="63"/>
+      <c r="FC35" s="63"/>
+      <c r="FD35" s="63"/>
+      <c r="FE35" s="63"/>
+      <c r="FF35" s="63"/>
+      <c r="FG35" s="63"/>
+      <c r="FH35" s="63"/>
+      <c r="FI35" s="63"/>
+      <c r="FJ35" s="63"/>
+      <c r="FK35" s="63"/>
+      <c r="FL35" s="63"/>
+      <c r="FM35" s="63"/>
+      <c r="FN35" s="63"/>
+      <c r="FO35" s="63"/>
+      <c r="FP35" s="63"/>
+      <c r="FQ35" s="63"/>
+      <c r="FR35" s="63"/>
+      <c r="FS35" s="63"/>
+      <c r="FT35" s="63"/>
+      <c r="FU35" s="63"/>
+      <c r="FV35" s="63"/>
+      <c r="FW35" s="63"/>
+      <c r="FX35" s="63"/>
+      <c r="FY35" s="63"/>
+      <c r="FZ35" s="63"/>
+      <c r="GA35" s="63"/>
+      <c r="GB35" s="63"/>
+      <c r="GC35" s="63"/>
+      <c r="GD35" s="63"/>
+      <c r="GE35" s="63"/>
+      <c r="GF35" s="63"/>
+      <c r="GG35" s="63"/>
+      <c r="GH35" s="63"/>
+      <c r="GI35" s="63"/>
+      <c r="GJ35" s="63"/>
+      <c r="GK35" s="63"/>
+      <c r="GL35" s="63"/>
+      <c r="GM35" s="63"/>
+      <c r="GN35" s="63"/>
+      <c r="GO35" s="63"/>
+      <c r="GP35" s="63"/>
+      <c r="GQ35" s="63"/>
+      <c r="GR35" s="63"/>
+      <c r="GS35" s="63"/>
+      <c r="GT35" s="63"/>
+      <c r="GU35" s="63"/>
+      <c r="GV35" s="63"/>
+      <c r="GW35" s="63"/>
+      <c r="GX35" s="63"/>
+      <c r="GY35" s="63"/>
+      <c r="GZ35" s="63"/>
+      <c r="HA35" s="63"/>
+      <c r="HB35" s="63"/>
+      <c r="HC35" s="63"/>
+      <c r="HD35" s="63"/>
+      <c r="HE35" s="63"/>
+      <c r="HF35" s="63"/>
+      <c r="HG35" s="63"/>
+      <c r="HH35" s="63"/>
+      <c r="HI35" s="63"/>
+      <c r="HJ35" s="63"/>
+      <c r="HK35" s="63"/>
+      <c r="HL35" s="63"/>
+      <c r="HM35" s="63"/>
+      <c r="HN35" s="63"/>
+      <c r="HO35" s="63"/>
+      <c r="HP35" s="63"/>
+      <c r="HQ35" s="63"/>
+      <c r="HR35" s="63"/>
+      <c r="HS35" s="63"/>
+      <c r="HT35" s="63"/>
+      <c r="HU35" s="63"/>
+      <c r="HV35" s="63"/>
+      <c r="HW35" s="63"/>
+      <c r="HX35" s="63"/>
+      <c r="HY35" s="63"/>
+      <c r="HZ35" s="63"/>
+      <c r="IA35" s="63"/>
+      <c r="IB35" s="63"/>
+      <c r="IC35" s="63"/>
+      <c r="ID35" s="63"/>
+      <c r="IE35" s="63"/>
+      <c r="IF35" s="63"/>
+      <c r="IG35" s="63"/>
+      <c r="IH35" s="63"/>
+    </row>
+    <row r="36" spans="1:242" s="63" customFormat="1" ht="195">
+      <c r="A36" s="76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" s="81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+    </row>
+    <row r="38" spans="1:242" s="63" customFormat="1" ht="15">
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"さざなみ明朝,太字"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"さざなみ明朝,太字"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R100"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A48" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -3143,10 +5209,8 @@
       <c r="J35" s="18"/>
     </row>
     <row r="36" spans="1:10" ht="11.25">
-      <c r="A36" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="23"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="16"/>
@@ -3157,12 +5221,8 @@
       <c r="J36" s="18"/>
     </row>
     <row r="37" spans="1:10" ht="11.25">
-      <c r="A37" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>74</v>
-      </c>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="16"/>
@@ -3172,13 +5232,9 @@
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
     </row>
-    <row r="38" spans="1:10" ht="12">
-      <c r="A38" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>66</v>
-      </c>
+    <row r="38" spans="1:10" ht="11.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="16"/>
@@ -3188,13 +5244,11 @@
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
     </row>
-    <row r="39" spans="1:10" ht="12">
-      <c r="A39" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>68</v>
-      </c>
+    <row r="39" spans="1:10" ht="11.25">
+      <c r="A39" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" s="23"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="16"/>
@@ -3204,10 +5258,12 @@
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" ht="12">
-      <c r="A40" s="51"/>
-      <c r="B40" s="50" t="s">
-        <v>69</v>
+    <row r="40" spans="1:10" ht="11.25">
+      <c r="A40" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
@@ -3219,9 +5275,11 @@
       <c r="J40" s="18"/>
     </row>
     <row r="41" spans="1:10" ht="12">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53" t="s">
-        <v>73</v>
+      <c r="A41" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
@@ -3233,11 +5291,11 @@
       <c r="J41" s="18"/>
     </row>
     <row r="42" spans="1:10" ht="12">
-      <c r="A42" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="55" t="s">
-        <v>71</v>
+      <c r="A42" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>68</v>
       </c>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
@@ -3249,11 +5307,9 @@
       <c r="J42" s="18"/>
     </row>
     <row r="43" spans="1:10" ht="12">
-      <c r="A43" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B43" s="55" t="s">
-        <v>71</v>
+      <c r="A43" s="51"/>
+      <c r="B43" s="50" t="s">
+        <v>69</v>
       </c>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
@@ -3264,9 +5320,11 @@
       <c r="I43" s="18"/>
       <c r="J43" s="18"/>
     </row>
-    <row r="44" spans="1:10" ht="11.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
+    <row r="44" spans="1:10" ht="12">
+      <c r="A44" s="52"/>
+      <c r="B44" s="53" t="s">
+        <v>73</v>
+      </c>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="16"/>
@@ -3276,13 +5334,15 @@
       <c r="I44" s="18"/>
       <c r="J44" s="18"/>
     </row>
-    <row r="45" spans="1:10" ht="11.25">
-      <c r="A45" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+    <row r="45" spans="1:10" ht="12">
+      <c r="A45" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
       <c r="E45" s="16"/>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -3290,15 +5350,15 @@
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
     </row>
-    <row r="46" spans="1:10" ht="11.25">
-      <c r="A46" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+    <row r="46" spans="1:10" ht="12">
+      <c r="A46" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
       <c r="E46" s="16"/>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -3306,15 +5366,11 @@
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
     </row>
-    <row r="47" spans="1:10" ht="12">
-      <c r="A47" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
+    <row r="47" spans="1:10" ht="11.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
       <c r="E47" s="16"/>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -3322,15 +5378,13 @@
       <c r="I47" s="18"/>
       <c r="J47" s="18"/>
     </row>
-    <row r="48" spans="1:10" ht="12">
-      <c r="A48" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
+    <row r="48" spans="1:10" ht="11.25">
+      <c r="A48" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
       <c r="E48" s="16"/>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -3338,13 +5392,15 @@
       <c r="I48" s="18"/>
       <c r="J48" s="18"/>
     </row>
-    <row r="49" spans="1:18" ht="12">
-      <c r="A49" s="51"/>
-      <c r="B49" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
+    <row r="49" spans="1:18" ht="11.25">
+      <c r="A49" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
       <c r="E49" s="16"/>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -3353,9 +5409,11 @@
       <c r="J49" s="18"/>
     </row>
     <row r="50" spans="1:18" ht="12">
-      <c r="A50" s="52"/>
-      <c r="B50" s="53" t="s">
-        <v>73</v>
+      <c r="A50" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="48" t="s">
+        <v>66</v>
       </c>
       <c r="C50" s="56"/>
       <c r="D50" s="56"/>
@@ -3367,11 +5425,11 @@
       <c r="J50" s="18"/>
     </row>
     <row r="51" spans="1:18" ht="12">
-      <c r="A51" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>89</v>
+      <c r="A51" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>68</v>
       </c>
       <c r="C51" s="56"/>
       <c r="D51" s="56"/>
@@ -3382,11 +5440,13 @@
       <c r="I51" s="18"/>
       <c r="J51" s="18"/>
     </row>
-    <row r="52" spans="1:18">
-      <c r="A52" s="16"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="18"/>
+    <row r="52" spans="1:18" ht="12">
+      <c r="A52" s="51"/>
+      <c r="B52" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="56"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="16"/>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -3394,11 +5454,13 @@
       <c r="I52" s="18"/>
       <c r="J52" s="18"/>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="16"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="18"/>
+    <row r="53" spans="1:18" ht="12">
+      <c r="A53" s="52"/>
+      <c r="B53" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="56"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="16"/>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -3406,184 +5468,163 @@
       <c r="I53" s="18"/>
       <c r="J53" s="18"/>
     </row>
-    <row r="54" spans="1:18">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="D54" s="16"/>
-    </row>
-    <row r="55" spans="1:18" ht="28.5">
-      <c r="A55" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+    <row r="54" spans="1:18" ht="12">
+      <c r="A54" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="56"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="16"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="E56" s="18"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="16"/>
       <c r="F56" s="18"/>
       <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="D57" s="16"/>
+    </row>
+    <row r="58" spans="1:18" ht="28.5">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-    </row>
-    <row r="58" spans="1:18">
-      <c r="A58" s="45" t="s">
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-    </row>
-    <row r="59" spans="1:18">
-      <c r="A59" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-    </row>
-    <row r="60" spans="1:18">
-      <c r="A60" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-    </row>
-    <row r="61" spans="1:18" ht="9.75" customHeight="1">
       <c r="E61" s="18"/>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:18" hidden="1"/>
-    <row r="63" spans="1:18" ht="14.25">
-      <c r="A63" s="21" t="s">
+    <row r="62" spans="1:18">
+      <c r="A62" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="19"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="19"/>
+      <c r="M62" s="19"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="19"/>
+      <c r="R62" s="19"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+    </row>
+    <row r="64" spans="1:18" ht="9.75" customHeight="1">
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:13" hidden="1"/>
+    <row r="66" spans="1:13" ht="14.25">
+      <c r="A66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="68" spans="1:13" ht="11.25">
-      <c r="A68" s="26" t="s">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="71" spans="1:13" ht="11.25">
+      <c r="A71" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-    </row>
-    <row r="69" spans="1:13" ht="11.25">
-      <c r="A69" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="25"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-    </row>
-    <row r="70" spans="1:13" ht="11.25">
-      <c r="A70" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C70" s="25"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-    </row>
-    <row r="71" spans="1:13" ht="11.25">
-      <c r="A71" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
       <c r="G71" s="26"/>
@@ -3595,16 +5636,14 @@
       <c r="M71" s="22"/>
     </row>
     <row r="72" spans="1:13" ht="11.25">
-      <c r="A72" s="32"/>
-      <c r="B72" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D72" s="30" t="s">
-        <v>22</v>
-      </c>
+      <c r="A72" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
@@ -3616,16 +5655,14 @@
       <c r="M72" s="22"/>
     </row>
     <row r="73" spans="1:13" ht="11.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73" s="30" t="s">
-        <v>90</v>
-      </c>
+      <c r="A73" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
       <c r="G73" s="26"/>
@@ -3637,16 +5674,18 @@
       <c r="M73" s="22"/>
     </row>
     <row r="74" spans="1:13" ht="11.25">
-      <c r="A74" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B74" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D74" s="34"/>
+      <c r="A74" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
       <c r="G74" s="26"/>
@@ -3658,16 +5697,16 @@
       <c r="M74" s="22"/>
     </row>
     <row r="75" spans="1:13" ht="11.25">
-      <c r="A75" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="B75" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="34"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
       <c r="G75" s="26"/>
@@ -3679,10 +5718,16 @@
       <c r="M75" s="22"/>
     </row>
     <row r="76" spans="1:13" ht="11.25">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
+      <c r="A76" s="33"/>
+      <c r="B76" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
       <c r="G76" s="26"/>
@@ -3694,12 +5739,16 @@
       <c r="M76" s="22"/>
     </row>
     <row r="77" spans="1:13" ht="11.25">
-      <c r="A77" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
+      <c r="A77" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C77" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="34"/>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
       <c r="G77" s="26"/>
@@ -3711,15 +5760,17 @@
       <c r="M77" s="22"/>
     </row>
     <row r="78" spans="1:13" ht="11.25">
-      <c r="A78" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B78" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
+      <c r="A78" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="34"/>
+      <c r="E78" s="26"/>
       <c r="F78" s="26"/>
       <c r="G78" s="26"/>
       <c r="H78" s="26"/>
@@ -3730,15 +5781,11 @@
       <c r="M78" s="22"/>
     </row>
     <row r="79" spans="1:13" ht="11.25">
-      <c r="A79" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
       <c r="H79" s="26"/>
@@ -3749,18 +5796,12 @@
       <c r="M79" s="22"/>
     </row>
     <row r="80" spans="1:13" ht="11.25">
-      <c r="A80" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>21</v>
-      </c>
+      <c r="A80" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -3772,17 +5813,15 @@
       <c r="M80" s="22"/>
     </row>
     <row r="81" spans="1:13" ht="11.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E81" s="26"/>
+      <c r="A81" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
       <c r="H81" s="26"/>
@@ -3793,17 +5832,15 @@
       <c r="M81" s="22"/>
     </row>
     <row r="82" spans="1:13" ht="11.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="E82" s="26"/>
+      <c r="A82" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
       <c r="H82" s="26"/>
@@ -3814,16 +5851,18 @@
       <c r="M82" s="22"/>
     </row>
     <row r="83" spans="1:13" ht="11.25">
-      <c r="A83" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="D83" s="34"/>
+      <c r="A83" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>21</v>
+      </c>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
@@ -3835,10 +5874,16 @@
       <c r="M83" s="22"/>
     </row>
     <row r="84" spans="1:13" ht="11.25">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>22</v>
+      </c>
       <c r="E84" s="26"/>
       <c r="F84" s="26"/>
       <c r="G84" s="26"/>
@@ -3850,12 +5895,16 @@
       <c r="M84" s="22"/>
     </row>
     <row r="85" spans="1:13" ht="11.25">
-      <c r="A85" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="26"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>90</v>
+      </c>
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
       <c r="G85" s="26"/>
@@ -3867,14 +5916,16 @@
       <c r="M85" s="22"/>
     </row>
     <row r="86" spans="1:13" ht="11.25">
-      <c r="A86" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B86" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
+      <c r="A86" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="C86" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="34"/>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
       <c r="G86" s="26"/>
@@ -3885,13 +5936,9 @@
       <c r="L86" s="22"/>
       <c r="M86" s="22"/>
     </row>
-    <row r="87" spans="1:13" ht="12">
-      <c r="A87" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="48" t="s">
-        <v>66</v>
-      </c>
+    <row r="87" spans="1:13" ht="11.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
@@ -3904,13 +5951,9 @@
       <c r="L87" s="22"/>
       <c r="M87" s="22"/>
     </row>
-    <row r="88" spans="1:13" ht="12">
-      <c r="A88" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B88" s="50" t="s">
-        <v>68</v>
-      </c>
+    <row r="88" spans="1:13" ht="11.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
@@ -3923,11 +5966,9 @@
       <c r="L88" s="22"/>
       <c r="M88" s="22"/>
     </row>
-    <row r="89" spans="1:13" ht="12">
-      <c r="A89" s="51"/>
-      <c r="B89" s="50" t="s">
-        <v>69</v>
-      </c>
+    <row r="89" spans="1:13" ht="11.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
@@ -3940,11 +5981,9 @@
       <c r="L89" s="22"/>
       <c r="M89" s="22"/>
     </row>
-    <row r="90" spans="1:13" ht="12">
-      <c r="A90" s="52"/>
-      <c r="B90" s="53" t="s">
-        <v>73</v>
-      </c>
+    <row r="90" spans="1:13" ht="11.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
       <c r="E90" s="26"/>
@@ -3957,13 +5996,11 @@
       <c r="L90" s="22"/>
       <c r="M90" s="22"/>
     </row>
-    <row r="91" spans="1:13" ht="48">
-      <c r="A91" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="B91" s="55" t="s">
-        <v>95</v>
-      </c>
+    <row r="91" spans="1:13" ht="11.25">
+      <c r="A91" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="26"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
@@ -3976,12 +6013,12 @@
       <c r="L91" s="22"/>
       <c r="M91" s="22"/>
     </row>
-    <row r="92" spans="1:13" ht="48">
-      <c r="A92" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="B92" s="55" t="s">
-        <v>94</v>
+    <row r="92" spans="1:13" ht="11.25">
+      <c r="A92" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
@@ -3995,9 +6032,13 @@
       <c r="L92" s="22"/>
       <c r="M92" s="22"/>
     </row>
-    <row r="93" spans="1:13" ht="11.25">
-      <c r="A93" s="26"/>
-      <c r="B93" s="26"/>
+    <row r="93" spans="1:13" ht="12">
+      <c r="A93" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="48" t="s">
+        <v>66</v>
+      </c>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
@@ -4010,11 +6051,13 @@
       <c r="L93" s="22"/>
       <c r="M93" s="22"/>
     </row>
-    <row r="94" spans="1:13" ht="11.25">
-      <c r="A94" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B94" s="26"/>
+    <row r="94" spans="1:13" ht="12">
+      <c r="A94" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" s="50" t="s">
+        <v>68</v>
+      </c>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
@@ -4027,51 +6070,155 @@
       <c r="L94" s="22"/>
       <c r="M94" s="22"/>
     </row>
-    <row r="95" spans="1:13" ht="11.25">
-      <c r="A95" s="37" t="s">
+    <row r="95" spans="1:13" ht="12">
+      <c r="A95" s="51"/>
+      <c r="B95" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="26"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="22"/>
+    </row>
+    <row r="96" spans="1:13" ht="12">
+      <c r="A96" s="52"/>
+      <c r="B96" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="26"/>
+      <c r="G96" s="26"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="26"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="22"/>
+    </row>
+    <row r="97" spans="1:13" ht="48">
+      <c r="A97" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+    </row>
+    <row r="98" spans="1:13" ht="48">
+      <c r="A98" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B98" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="26"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="22"/>
+    </row>
+    <row r="99" spans="1:13" ht="11.25">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="26"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="22"/>
+    </row>
+    <row r="100" spans="1:13" ht="11.25">
+      <c r="A100" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="26"/>
+      <c r="H100" s="26"/>
+      <c r="I100" s="26"/>
+      <c r="J100" s="26"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="22"/>
+    </row>
+    <row r="101" spans="1:13" ht="11.25">
+      <c r="A101" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B95" s="36" t="s">
+      <c r="B101" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C95" s="23"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="26"/>
-    </row>
-    <row r="96" spans="1:13" ht="12">
-      <c r="A96" s="47" t="s">
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="26"/>
+    </row>
+    <row r="102" spans="1:13" ht="12">
+      <c r="A102" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B96" s="48" t="s">
+      <c r="B102" s="48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="12">
-      <c r="A97" s="49" t="s">
+    <row r="103" spans="1:13" ht="12">
+      <c r="A103" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="B97" s="50" t="s">
+      <c r="B103" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="12">
-      <c r="A98" s="51"/>
-      <c r="B98" s="50" t="s">
+    <row r="104" spans="1:13" ht="12">
+      <c r="A104" s="51"/>
+      <c r="B104" s="50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="12">
-      <c r="A99" s="52"/>
-      <c r="B99" s="53" t="s">
+    <row r="105" spans="1:13" ht="12">
+      <c r="A105" s="52"/>
+      <c r="B105" s="53" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="48">
-      <c r="A100" s="54" t="s">
+    <row r="106" spans="1:13" ht="48">
+      <c r="A106" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B106" s="55" t="s">
         <v>95</v>
       </c>
     </row>
